--- a/daily_accounting_report.xlsx
+++ b/daily_accounting_report.xlsx
@@ -453,11 +453,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -469,10 +471,12 @@
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="21" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
+    <col width="35" customWidth="1" min="8" max="8"/>
+    <col width="33" customWidth="1" min="9" max="9"/>
+    <col width="35" customWidth="1" min="10" max="10"/>
+    <col width="33" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="26" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -513,20 +517,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Start of Day Fund Value</t>
+          <t>Start Fund Value (Accounts Total)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Fund Value</t>
+          <t>End Fund Value (Accounts Total)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Start Fund Value (NAV + Cum. P&amp;L)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>End Fund Value (NAV + Cum. P&amp;L)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Daily Fund Return</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Period Cumulative Return</t>
         </is>
@@ -539,7 +553,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-57.25999999977648</v>
+        <v>-57.26000000000001</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>4999942.74</v>
@@ -551,7 +565,7 @@
         <v>10000</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-57.25999999977648</v>
+        <v>-57.26000000000001</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>10010000</v>
@@ -562,11 +576,17 @@
       <c r="I2" s="3" t="n">
         <v>5009942.74</v>
       </c>
-      <c r="J2" s="4">
-        <f>(F2/H2)</f>
-        <v/>
-      </c>
-      <c r="K2" s="4">
+      <c r="J2" s="3" t="n">
+        <v>10010000</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>10009942.74</v>
+      </c>
+      <c r="L2" s="4">
+        <f>(F2/J2)</f>
+        <v/>
+      </c>
+      <c r="M2" s="4">
         <f>(F2/G2)</f>
         <v/>
       </c>
@@ -578,7 +598,7 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>41031.73499999754</v>
+        <v>41031.735</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>10040974.475</v>
@@ -590,7 +610,7 @@
         <v>10000</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>41031.73499999754</v>
+        <v>41031.735</v>
       </c>
       <c r="G3" s="5" t="n">
         <v>10010000</v>
@@ -601,12 +621,18 @@
       <c r="I3" s="5" t="n">
         <v>10050974.475</v>
       </c>
-      <c r="J3" s="6">
-        <f>(F3/H3)</f>
-        <v/>
-      </c>
-      <c r="K3" s="6">
-        <f>IF(G3&lt;&gt;G2,F3/G3,(K2*G2+F3)/G3)</f>
+      <c r="J3" s="5" t="n">
+        <v>10009942.74</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>10050974.475</v>
+      </c>
+      <c r="L3" s="6">
+        <f>(F3/J3)</f>
+        <v/>
+      </c>
+      <c r="M3" s="6">
+        <f>SUMIFS(F$2:F3,G$2:G3,G3)/G3</f>
         <v/>
       </c>
     </row>
@@ -617,7 +643,7 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>80644.27100000344</v>
+        <v>80644.27099999999</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>10121618.746</v>
@@ -629,7 +655,7 @@
         <v>4510000</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80644.27100000344</v>
+        <v>80644.27099999999</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>10010000</v>
@@ -640,12 +666,18 @@
       <c r="I4" s="5" t="n">
         <v>14631618.746</v>
       </c>
-      <c r="J4" s="6">
-        <f>(F4/H4)</f>
-        <v/>
-      </c>
-      <c r="K4" s="6">
-        <f>IF(G4&lt;&gt;G3,F4/G4,(K3*G3+F4)/G4)</f>
+      <c r="J4" s="5" t="n">
+        <v>10050974.475</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>10131618.746</v>
+      </c>
+      <c r="L4" s="6">
+        <f>(F4/J4)</f>
+        <v/>
+      </c>
+      <c r="M4" s="6">
+        <f>SUMIFS(F$2:F4,G$2:G4,G4)/G4</f>
         <v/>
       </c>
     </row>
@@ -656,7 +688,7 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>-24986.70850000344</v>
+        <v>-24986.7085</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>10096632.0375</v>
@@ -668,7 +700,7 @@
         <v>4510000</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-24986.70850000344</v>
+        <v>-24986.7085</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>10010000</v>
@@ -679,12 +711,18 @@
       <c r="I5" s="5" t="n">
         <v>14606632.0375</v>
       </c>
-      <c r="J5" s="6">
-        <f>(F5/H5)</f>
-        <v/>
-      </c>
-      <c r="K5" s="6">
-        <f>IF(G5&lt;&gt;G4,F5/G5,(K4*G4+F5)/G5)</f>
+      <c r="J5" s="5" t="n">
+        <v>10131618.746</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>10106632.0375</v>
+      </c>
+      <c r="L5" s="6">
+        <f>(F5/J5)</f>
+        <v/>
+      </c>
+      <c r="M5" s="6">
+        <f>SUMIFS(F$2:F5,G$2:G5,G5)/G5</f>
         <v/>
       </c>
     </row>
@@ -695,7 +733,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>22381.37350000069</v>
+        <v>22381.3735</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>14619013.411</v>
@@ -707,7 +745,7 @@
         <v>10000</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>22381.37350000069</v>
+        <v>22381.3735</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>14603264.06</v>
@@ -718,12 +756,18 @@
       <c r="I6" s="3" t="n">
         <v>14629013.411</v>
       </c>
-      <c r="J6" s="4">
-        <f>(F6/H6)</f>
-        <v/>
-      </c>
-      <c r="K6" s="4">
-        <f>IF(G6&lt;&gt;G5,F6/G6,(K5*G5+F6)/G6)</f>
+      <c r="J6" s="3" t="n">
+        <v>14603264.06</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>14625645.4335</v>
+      </c>
+      <c r="L6" s="4">
+        <f>(F6/J6)</f>
+        <v/>
+      </c>
+      <c r="M6" s="4">
+        <f>SUMIFS(F$2:F6,G$2:G6,G6)/G6</f>
         <v/>
       </c>
     </row>
@@ -734,7 +778,7 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>139085.2545999996</v>
+        <v>139085.2546</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>14758098.6656</v>
@@ -746,7 +790,7 @@
         <v>10000</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139085.2545999996</v>
+        <v>139085.2546</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>14603264.06</v>
@@ -757,12 +801,18 @@
       <c r="I7" s="5" t="n">
         <v>14768098.6656</v>
       </c>
-      <c r="J7" s="6">
-        <f>(F7/H7)</f>
-        <v/>
-      </c>
-      <c r="K7" s="6">
-        <f>IF(G7&lt;&gt;G6,F7/G7,(K6*G6+F7)/G7)</f>
+      <c r="J7" s="5" t="n">
+        <v>14625645.4335</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>14764730.6881</v>
+      </c>
+      <c r="L7" s="6">
+        <f>(F7/J7)</f>
+        <v/>
+      </c>
+      <c r="M7" s="6">
+        <f>SUMIFS(F$2:F7,G$2:G7,G7)/G7</f>
         <v/>
       </c>
     </row>
@@ -773,7 +823,7 @@
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>102586.3000000026</v>
+        <v>102586.3</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>14860684.9656</v>
@@ -785,7 +835,7 @@
         <v>10000</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>102586.3000000026</v>
+        <v>102586.3</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>14603264.06</v>
@@ -796,12 +846,18 @@
       <c r="I8" s="5" t="n">
         <v>14870684.9656</v>
       </c>
-      <c r="J8" s="6">
-        <f>(F8/H8)</f>
-        <v/>
-      </c>
-      <c r="K8" s="6">
-        <f>IF(G8&lt;&gt;G7,F8/G8,(K7*G7+F8)/G8)</f>
+      <c r="J8" s="5" t="n">
+        <v>14764730.6881</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>14867316.9881</v>
+      </c>
+      <c r="L8" s="6">
+        <f>(F8/J8)</f>
+        <v/>
+      </c>
+      <c r="M8" s="6">
+        <f>SUMIFS(F$2:F8,G$2:G8,G8)/G8</f>
         <v/>
       </c>
     </row>
@@ -812,7 +868,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>-224046.4402364008</v>
+        <v>-224046.4402364</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>14636638.5253636</v>
@@ -824,7 +880,7 @@
         <v>10000</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-224046.4402364008</v>
+        <v>-224046.4402364</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>14603264.06</v>
@@ -835,12 +891,18 @@
       <c r="I9" s="5" t="n">
         <v>14646638.5253636</v>
       </c>
-      <c r="J9" s="6">
-        <f>(F9/H9)</f>
-        <v/>
-      </c>
-      <c r="K9" s="6">
-        <f>IF(G9&lt;&gt;G8,F9/G9,(K8*G8+F9)/G9)</f>
+      <c r="J9" s="5" t="n">
+        <v>14867316.9881</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>14643270.5478636</v>
+      </c>
+      <c r="L9" s="6">
+        <f>(F9/J9)</f>
+        <v/>
+      </c>
+      <c r="M9" s="6">
+        <f>SUMIFS(F$2:F9,G$2:G9,G9)/G9</f>
         <v/>
       </c>
     </row>
@@ -851,7 +913,7 @@
         </is>
       </c>
       <c r="B10" s="8" t="n">
-        <v>371776.6621478312</v>
+        <v>371776.66214783</v>
       </c>
       <c r="C10" s="8" t="n">
         <v>15008415.18751143</v>
@@ -863,7 +925,7 @@
         <v>10000</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>371776.6621478312</v>
+        <v>371776.66214783</v>
       </c>
       <c r="G10" s="8" t="n">
         <v>14603264.06</v>
@@ -874,12 +936,18 @@
       <c r="I10" s="8" t="n">
         <v>15018415.18751143</v>
       </c>
-      <c r="J10" s="9">
-        <f>(F10/H10)</f>
-        <v/>
-      </c>
-      <c r="K10" s="9">
-        <f>IF(G10&lt;&gt;G9,F10/G10,(K9*G9+F10)/G10)</f>
+      <c r="J10" s="8" t="n">
+        <v>14643270.5478636</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>15015047.21001143</v>
+      </c>
+      <c r="L10" s="9">
+        <f>(F10/J10)</f>
+        <v/>
+      </c>
+      <c r="M10" s="9">
+        <f>SUMIFS(F$2:F10,G$2:G10,G10)/G10</f>
         <v/>
       </c>
     </row>
@@ -890,19 +958,19 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>257285.1533385739</v>
+        <v>257285.15333858</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>15265700.34085</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>-23920</v>
+        <v>5980</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>255180</v>
+        <v>285080</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>233365.1533385739</v>
+        <v>263265.15333858</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>15273737.91</v>
@@ -911,14 +979,20 @@
         <v>15273737.91</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>15251780.34085</v>
-      </c>
-      <c r="J11" s="4">
-        <f>(F11/H11)</f>
-        <v/>
-      </c>
-      <c r="K11" s="4">
-        <f>IF(G11&lt;&gt;G10,F11/G11,(K10*G10+F11)/G11)</f>
+        <v>15281680.34085</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>15273737.91</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>15537003.06333858</v>
+      </c>
+      <c r="L11" s="4">
+        <f>(F11/J11)</f>
+        <v/>
+      </c>
+      <c r="M11" s="4">
+        <f>SUMIFS(F$2:F11,G$2:G11,G11)/G11</f>
         <v/>
       </c>
     </row>
@@ -929,7 +1003,7 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>390442.4199999981</v>
+        <v>390442.42</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>15656142.76085</v>
@@ -938,26 +1012,32 @@
         <v>28704</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>283884</v>
+        <v>313784</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>419146.4199999981</v>
+        <v>419146.42</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15520880.34085</v>
+        <v>15550780.34085</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15940026.76085</v>
-      </c>
-      <c r="J12" s="6">
-        <f>(F12/H12)</f>
-        <v/>
-      </c>
-      <c r="K12" s="6">
-        <f>IF(G12&lt;&gt;G11,F12/G12,(K11*G11+F12)/G12)</f>
+        <v>15969926.76085</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>15537003.06333858</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>15956149.48333858</v>
+      </c>
+      <c r="L12" s="6">
+        <f>(F12/J12)</f>
+        <v/>
+      </c>
+      <c r="M12" s="6">
+        <f>SUMIFS(F$2:F12,G$2:G12,G12)/G12</f>
         <v/>
       </c>
     </row>
@@ -968,7 +1048,7 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>-222086.7411899993</v>
+        <v>-222086.74119</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>15441855.25966</v>
@@ -977,26 +1057,32 @@
         <v>15548</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>299432</v>
+        <v>329332</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-206538.7411899993</v>
+        <v>-206538.74119</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15940026.76085</v>
+        <v>15969926.76085</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>15741287.25966</v>
-      </c>
-      <c r="J13" s="6">
-        <f>(F13/H13)</f>
-        <v/>
-      </c>
-      <c r="K13" s="6">
-        <f>IF(G13&lt;&gt;G12,F13/G13,(K12*G12+F13)/G13)</f>
+        <v>15771187.25966</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>15956149.48333858</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>15749610.74214858</v>
+      </c>
+      <c r="L13" s="6">
+        <f>(F13/J13)</f>
+        <v/>
+      </c>
+      <c r="M13" s="6">
+        <f>SUMIFS(F$2:F13,G$2:G13,G13)/G13</f>
         <v/>
       </c>
     </row>
@@ -1007,7 +1093,7 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>-239010.3849999998</v>
+        <v>-239010.385</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>15202844.87466</v>
@@ -1016,26 +1102,32 @@
         <v>3588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>303020</v>
+        <v>332920</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-235422.3849999998</v>
+        <v>-235422.385</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>15741287.25966</v>
+        <v>15771187.25966</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>15505864.87466</v>
-      </c>
-      <c r="J14" s="6">
-        <f>(F14/H14)</f>
-        <v/>
-      </c>
-      <c r="K14" s="6">
-        <f>IF(G14&lt;&gt;G13,F14/G14,(K13*G13+F14)/G14)</f>
+        <v>15535764.87466</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>15749610.74214858</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>15514188.35714858</v>
+      </c>
+      <c r="L14" s="6">
+        <f>(F14/J14)</f>
+        <v/>
+      </c>
+      <c r="M14" s="6">
+        <f>SUMIFS(F$2:F14,G$2:G14,G14)/G14</f>
         <v/>
       </c>
     </row>
@@ -1046,7 +1138,7 @@
         </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>210047.3177538682</v>
+        <v>210047.31775387</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>15412892.19241387</v>
@@ -1055,26 +1147,32 @@
         <v>5980</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>309000</v>
+        <v>338900</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>216027.3177538682</v>
+        <v>216027.31775387</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>15505864.87466</v>
+        <v>15535764.87466</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>15721892.19241387</v>
-      </c>
-      <c r="J15" s="6">
-        <f>(F15/H15)</f>
-        <v/>
-      </c>
-      <c r="K15" s="6">
-        <f>IF(G15&lt;&gt;G14,F15/G15,(K14*G14+F15)/G15)</f>
+        <v>15751792.19241387</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>15514188.35714858</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>15730215.67490245</v>
+      </c>
+      <c r="L15" s="6">
+        <f>(F15/J15)</f>
+        <v/>
+      </c>
+      <c r="M15" s="6">
+        <f>SUMIFS(F$2:F15,G$2:G15,G15)/G15</f>
         <v/>
       </c>
     </row>
@@ -1085,7 +1183,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>-231047.2073146496</v>
+        <v>-231047.20731465</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>15181844.98509922</v>
@@ -1094,26 +1192,32 @@
         <v>-9568</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>295937</v>
+        <v>325837</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-240615.2073146496</v>
+        <v>-240615.20731465</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>15721892.19241387</v>
+        <v>15751792.19241387</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>15477781.98509922</v>
-      </c>
-      <c r="J16" s="6">
-        <f>(F16/H16)</f>
-        <v/>
-      </c>
-      <c r="K16" s="6">
-        <f>IF(G16&lt;&gt;G15,F16/G16,(K15*G15+F16)/G16)</f>
+        <v>15507681.98509922</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>15730215.67490245</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>15489600.4675878</v>
+      </c>
+      <c r="L16" s="6">
+        <f>(F16/J16)</f>
+        <v/>
+      </c>
+      <c r="M16" s="6">
+        <f>SUMIFS(F$2:F16,G$2:G16,G16)/G16</f>
         <v/>
       </c>
     </row>
@@ -1124,7 +1228,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>-253375.4175256137</v>
+        <v>-253375.41752561</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>14928469.56757361</v>
@@ -1133,26 +1237,32 @@
         <v>4784</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>300721</v>
+        <v>330621</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-248591.4175256137</v>
+        <v>-248591.41752561</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>15477781.98509922</v>
+        <v>15507681.98509922</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>15229190.56757361</v>
-      </c>
-      <c r="J17" s="6">
-        <f>(F17/H17)</f>
-        <v/>
-      </c>
-      <c r="K17" s="6">
-        <f>IF(G17&lt;&gt;G16,F17/G17,(K16*G16+F17)/G17)</f>
+        <v>15259090.56757361</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>15489600.4675878</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>15241009.05006219</v>
+      </c>
+      <c r="L17" s="6">
+        <f>(F17/J17)</f>
+        <v/>
+      </c>
+      <c r="M17" s="6">
+        <f>SUMIFS(F$2:F17,G$2:G17,G17)/G17</f>
         <v/>
       </c>
     </row>
@@ -1163,7 +1273,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>-124929.8685288019</v>
+        <v>-124929.8685288</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>14803539.69904481</v>
@@ -1172,26 +1282,32 @@
         <v>-10764</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>289957</v>
+        <v>319857</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-135693.8685288019</v>
+        <v>-135693.8685288</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15229190.56757361</v>
+        <v>15259090.56757361</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15093496.69904481</v>
-      </c>
-      <c r="J18" s="6">
-        <f>(F18/H18)</f>
-        <v/>
-      </c>
-      <c r="K18" s="6">
-        <f>IF(G18&lt;&gt;G17,F18/G18,(K17*G17+F18)/G18)</f>
+        <v>15123396.69904481</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>15241009.05006219</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>15105315.18153339</v>
+      </c>
+      <c r="L18" s="6">
+        <f>(F18/J18)</f>
+        <v/>
+      </c>
+      <c r="M18" s="6">
+        <f>SUMIFS(F$2:F18,G$2:G18,G18)/G18</f>
         <v/>
       </c>
     </row>
@@ -1202,7 +1318,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>188324.9700000007</v>
+        <v>188324.97</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>14991864.66904481</v>
@@ -1211,26 +1327,32 @@
         <v>8372</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>298329</v>
+        <v>328229</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>196696.9700000007</v>
+        <v>196696.97</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>15093496.69904481</v>
+        <v>15123396.69904481</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>15290193.66904481</v>
-      </c>
-      <c r="J19" s="6">
-        <f>(F19/H19)</f>
-        <v/>
-      </c>
-      <c r="K19" s="6">
-        <f>IF(G19&lt;&gt;G18,F19/G19,(K18*G18+F19)/G19)</f>
+        <v>15320093.66904481</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>15105315.18153339</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>15302012.15153339</v>
+      </c>
+      <c r="L19" s="6">
+        <f>(F19/J19)</f>
+        <v/>
+      </c>
+      <c r="M19" s="6">
+        <f>SUMIFS(F$2:F19,G$2:G19,G19)/G19</f>
         <v/>
       </c>
     </row>
@@ -1241,7 +1363,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>82204.61635358445</v>
+        <v>82204.61635359</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>15074069.28539839</v>
@@ -1250,26 +1372,32 @@
         <v>19136</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>317465</v>
+        <v>347365</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>101340.6163535845</v>
+        <v>101340.61635359</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>15290193.66904481</v>
+        <v>15320093.66904481</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>15391534.28539839</v>
-      </c>
-      <c r="J20" s="6">
-        <f>(F20/H20)</f>
-        <v/>
-      </c>
-      <c r="K20" s="6">
-        <f>IF(G20&lt;&gt;G19,F20/G20,(K19*G19+F20)/G20)</f>
+        <v>15421434.28539839</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>15302012.15153339</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>15403352.76788698</v>
+      </c>
+      <c r="L20" s="6">
+        <f>(F20/J20)</f>
+        <v/>
+      </c>
+      <c r="M20" s="6">
+        <f>SUMIFS(F$2:F20,G$2:G20,G20)/G20</f>
         <v/>
       </c>
     </row>
@@ -1280,7 +1408,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>226028.1959754005</v>
+        <v>226028.1959754</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>15300097.48137379</v>
@@ -1289,26 +1417,32 @@
         <v>32292</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>349757</v>
+        <v>379657</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>258320.1959754005</v>
+        <v>258320.1959754</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>15391534.28539839</v>
+        <v>15421434.28539839</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>15649854.48137379</v>
-      </c>
-      <c r="J21" s="6">
-        <f>(F21/H21)</f>
-        <v/>
-      </c>
-      <c r="K21" s="6">
-        <f>IF(G21&lt;&gt;G20,F21/G21,(K20*G20+F21)/G21)</f>
+        <v>15679754.48137379</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>15403352.76788698</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>15661672.96386238</v>
+      </c>
+      <c r="L21" s="6">
+        <f>(F21/J21)</f>
+        <v/>
+      </c>
+      <c r="M21" s="6">
+        <f>SUMIFS(F$2:F21,G$2:G21,G21)/G21</f>
         <v/>
       </c>
     </row>
@@ -1319,7 +1453,7 @@
         </is>
       </c>
       <c r="B22" s="5" t="n">
-        <v>-259838.2046388909</v>
+        <v>-259838.20463889</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>15040259.2767349</v>
@@ -1328,26 +1462,32 @@
         <v>-27508</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>322249</v>
+        <v>352149</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-287346.2046388909</v>
+        <v>-287346.20463889</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>15649854.48137379</v>
+        <v>15679754.48137379</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>15362508.2767349</v>
-      </c>
-      <c r="J22" s="6">
-        <f>(F22/H22)</f>
-        <v/>
-      </c>
-      <c r="K22" s="6">
-        <f>IF(G22&lt;&gt;G21,F22/G22,(K21*G21+F22)/G22)</f>
+        <v>15392408.2767349</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>15661672.96386238</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>15374326.75922349</v>
+      </c>
+      <c r="L22" s="6">
+        <f>(F22/J22)</f>
+        <v/>
+      </c>
+      <c r="M22" s="6">
+        <f>SUMIFS(F$2:F22,G$2:G22,G22)/G22</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1498,7 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>159060.9199118521</v>
+        <v>159060.91991185</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>15199320.19664675</v>
@@ -1367,26 +1507,32 @@
         <v>-16744</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>305505</v>
+        <v>335405</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>142316.9199118521</v>
+        <v>142316.91991185</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15362508.2767349</v>
+        <v>15392408.2767349</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>15504825.19664675</v>
-      </c>
-      <c r="J23" s="6">
-        <f>(F23/H23)</f>
-        <v/>
-      </c>
-      <c r="K23" s="6">
-        <f>IF(G23&lt;&gt;G22,F23/G23,(K22*G22+F23)/G23)</f>
+        <v>15534725.19664675</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>15374326.75922349</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>15516643.67913534</v>
+      </c>
+      <c r="L23" s="6">
+        <f>(F23/J23)</f>
+        <v/>
+      </c>
+      <c r="M23" s="6">
+        <f>SUMIFS(F$2:F23,G$2:G23,G23)/G23</f>
         <v/>
       </c>
     </row>
@@ -1406,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>305505</v>
+        <v>335405</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
@@ -1415,17 +1561,23 @@
         <v>15273737.91</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15504825.19664675</v>
+        <v>15534725.19664675</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>15504825.19664675</v>
-      </c>
-      <c r="J24" s="6">
-        <f>(F24/H24)</f>
-        <v/>
-      </c>
-      <c r="K24" s="6">
-        <f>IF(G24&lt;&gt;G23,F24/G24,(K23*G23+F24)/G24)</f>
+        <v>15534725.19664675</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>15516643.67913534</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>15516643.67913534</v>
+      </c>
+      <c r="L24" s="6">
+        <f>(F24/J24)</f>
+        <v/>
+      </c>
+      <c r="M24" s="6">
+        <f>SUMIFS(F$2:F24,G$2:G24,G24)/G24</f>
         <v/>
       </c>
     </row>
@@ -1436,7 +1588,7 @@
         </is>
       </c>
       <c r="B25" s="5" t="n">
-        <v>-439966.5011303984</v>
+        <v>-439966.5011304</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>14759353.69551636</v>
@@ -1445,26 +1597,32 @@
         <v>81328</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>386833</v>
+        <v>416733</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-358638.5011303984</v>
+        <v>-358638.5011304</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>15504825.19664675</v>
+        <v>15534725.19664675</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>15146186.69551636</v>
-      </c>
-      <c r="J25" s="6">
-        <f>(F25/H25)</f>
-        <v/>
-      </c>
-      <c r="K25" s="6">
-        <f>IF(G25&lt;&gt;G24,F25/G25,(K24*G24+F25)/G25)</f>
+        <v>15176086.69551636</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>15516643.67913534</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <v>15158005.17800494</v>
+      </c>
+      <c r="L25" s="6">
+        <f>(F25/J25)</f>
+        <v/>
+      </c>
+      <c r="M25" s="6">
+        <f>SUMIFS(F$2:F25,G$2:G25,G25)/G25</f>
         <v/>
       </c>
     </row>
@@ -1475,7 +1633,7 @@
         </is>
       </c>
       <c r="B26" s="5" t="n">
-        <v>38546.30328277126</v>
+        <v>38546.30328277</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>14797899.99879913</v>
@@ -1484,26 +1642,32 @@
         <v>-46644</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>340189</v>
+        <v>370089</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-8097.69671722874</v>
+        <v>-8097.696717229999</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>15146186.69551636</v>
+        <v>15176086.69551636</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>15138088.99879913</v>
-      </c>
-      <c r="J26" s="6">
-        <f>(F26/H26)</f>
-        <v/>
-      </c>
-      <c r="K26" s="6">
-        <f>IF(G26&lt;&gt;G25,F26/G26,(K25*G25+F26)/G26)</f>
+        <v>15167988.99879913</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>15158005.17800494</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>15149907.48128771</v>
+      </c>
+      <c r="L26" s="6">
+        <f>(F26/J26)</f>
+        <v/>
+      </c>
+      <c r="M26" s="6">
+        <f>SUMIFS(F$2:F26,G$2:G26,G26)/G26</f>
         <v/>
       </c>
     </row>
@@ -1514,7 +1678,7 @@
         </is>
       </c>
       <c r="B27" s="5" t="n">
-        <v>56667.46091064066</v>
+        <v>56667.46091064</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>14854567.45970977</v>
@@ -1523,26 +1687,32 @@
         <v>-10764</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>329425</v>
+        <v>359325</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>45903.46091064066</v>
+        <v>45903.46091064</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>15138088.99879913</v>
+        <v>15167988.99879913</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>15183992.45970977</v>
-      </c>
-      <c r="J27" s="6">
-        <f>(F27/H27)</f>
-        <v/>
-      </c>
-      <c r="K27" s="6">
-        <f>IF(G27&lt;&gt;G26,F27/G27,(K26*G26+F27)/G27)</f>
+        <v>15213892.45970977</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>15149907.48128771</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>15195810.94219835</v>
+      </c>
+      <c r="L27" s="6">
+        <f>(F27/J27)</f>
+        <v/>
+      </c>
+      <c r="M27" s="6">
+        <f>SUMIFS(F$2:F27,G$2:G27,G27)/G27</f>
         <v/>
       </c>
     </row>
@@ -1553,7 +1723,7 @@
         </is>
       </c>
       <c r="B28" s="5" t="n">
-        <v>-239687.2166675217</v>
+        <v>-239687.21666752</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>14604880.24304225</v>
@@ -1562,26 +1732,32 @@
         <v>-9568</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>329857</v>
+        <v>359757</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-249255.2166675217</v>
+        <v>-249255.21666752</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>15183992.45970977</v>
+        <v>15213892.45970977</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>14934737.24304225</v>
-      </c>
-      <c r="J28" s="6">
-        <f>(F28/H28)</f>
-        <v/>
-      </c>
-      <c r="K28" s="6">
-        <f>IF(G28&lt;&gt;G27,F28/G28,(K27*G27+F28)/G28)</f>
+        <v>14964637.24304225</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>15195810.94219835</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>14946555.72553083</v>
+      </c>
+      <c r="L28" s="6">
+        <f>(F28/J28)</f>
+        <v/>
+      </c>
+      <c r="M28" s="6">
+        <f>SUMIFS(F$2:F28,G$2:G28,G28)/G28</f>
         <v/>
       </c>
     </row>
@@ -1592,7 +1768,7 @@
         </is>
       </c>
       <c r="B29" s="5" t="n">
-        <v>2209.704076003283</v>
+        <v>2209.704076</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>14607089.94711825</v>
@@ -1601,26 +1777,32 @@
         <v>-7176</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>322681</v>
+        <v>352581</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4966.295923996717</v>
+        <v>-4966.295924</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>14934737.24304225</v>
+        <v>14964637.24304225</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>14929770.94711825</v>
-      </c>
-      <c r="J29" s="6">
-        <f>(F29/H29)</f>
-        <v/>
-      </c>
-      <c r="K29" s="6">
-        <f>IF(G29&lt;&gt;G28,F29/G29,(K28*G28+F29)/G29)</f>
+        <v>14959670.94711825</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>14946555.72553083</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>14941589.42960683</v>
+      </c>
+      <c r="L29" s="6">
+        <f>(F29/J29)</f>
+        <v/>
+      </c>
+      <c r="M29" s="6">
+        <f>SUMIFS(F$2:F29,G$2:G29,G29)/G29</f>
         <v/>
       </c>
     </row>
@@ -1631,7 +1813,7 @@
         </is>
       </c>
       <c r="B30" s="8" t="n">
-        <v>-41756.50682781637</v>
+        <v>-41756.50682782001</v>
       </c>
       <c r="C30" s="8" t="n">
         <v>14565333.44029043</v>
@@ -1640,26 +1822,32 @@
         <v>-1196</v>
       </c>
       <c r="E30" s="8" t="n">
-        <v>321485</v>
+        <v>351385</v>
       </c>
       <c r="F30" s="8" t="n">
-        <v>-42952.50682781637</v>
+        <v>-42952.50682782001</v>
       </c>
       <c r="G30" s="8" t="n">
         <v>15273737.91</v>
       </c>
       <c r="H30" s="8" t="n">
-        <v>14929770.94711825</v>
+        <v>14959670.94711825</v>
       </c>
       <c r="I30" s="8" t="n">
-        <v>14886818.44029043</v>
-      </c>
-      <c r="J30" s="9">
-        <f>(F30/H30)</f>
-        <v/>
-      </c>
-      <c r="K30" s="9">
-        <f>IF(G30&lt;&gt;G29,F30/G30,(K29*G29+F30)/G30)</f>
+        <v>14916718.44029043</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>14941589.42960683</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>14898636.92277901</v>
+      </c>
+      <c r="L30" s="9">
+        <f>(F30/J30)</f>
+        <v/>
+      </c>
+      <c r="M30" s="9">
+        <f>SUMIFS(F$2:F30,G$2:G30,G30)/G30</f>
         <v/>
       </c>
     </row>
@@ -1670,7 +1858,7 @@
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>187213.7536992021</v>
+        <v>187213.7536992</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>14752547.19398963</v>
@@ -1679,10 +1867,10 @@
         <v>7176</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>328661</v>
+        <v>358561</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>194389.7536992021</v>
+        <v>194389.7536992</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>15101946.25</v>
@@ -1691,14 +1879,20 @@
         <v>15101946.25</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>15081208.19398963</v>
-      </c>
-      <c r="J31" s="4">
-        <f>(F31/H31)</f>
-        <v/>
-      </c>
-      <c r="K31" s="4">
-        <f>IF(G31&lt;&gt;G30,F31/G31,(K30*G30+F31)/G31)</f>
+        <v>15111108.19398963</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>15101946.25</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>15296336.0036992</v>
+      </c>
+      <c r="L31" s="4">
+        <f>(F31/J31)</f>
+        <v/>
+      </c>
+      <c r="M31" s="4">
+        <f>SUMIFS(F$2:F31,G$2:G31,G31)/G31</f>
         <v/>
       </c>
     </row>
@@ -1709,7 +1903,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>14979.9728159979</v>
+        <v>14979.972816</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>14767527.16680563</v>
@@ -1718,26 +1912,32 @@
         <v>-3588</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10531553</v>
+        <v>10561453</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11391.9728159979</v>
+        <v>11391.972816</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>15101946.25</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>15081208.19398963</v>
+        <v>15111108.19398963</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>15092100.16680563</v>
-      </c>
-      <c r="J32" s="6">
-        <f>(F32/H32)</f>
-        <v/>
-      </c>
-      <c r="K32" s="6">
-        <f>IF(G32&lt;&gt;G31,F32/G32,(K31*G31+F32)/G32)</f>
+        <v>15122000.16680563</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <v>15296336.0036992</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <v>15307727.9765152</v>
+      </c>
+      <c r="L32" s="6">
+        <f>(F32/J32)</f>
+        <v/>
+      </c>
+      <c r="M32" s="6">
+        <f>SUMIFS(F$2:F32,G$2:G32,G32)/G32</f>
         <v/>
       </c>
     </row>
@@ -1748,7 +1948,7 @@
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>202060.0863872007</v>
+        <v>202060.0863872</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>14970212.65319283</v>
@@ -1757,10 +1957,10 @@
         <v>-2392</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>10520519</v>
+        <v>10550419</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>199668.0863872007</v>
+        <v>199668.0863872</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>25306956.38</v>
@@ -1769,14 +1969,20 @@
         <v>25306956.38</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>25490731.65319283</v>
-      </c>
-      <c r="J33" s="4">
-        <f>(F33/H33)</f>
-        <v/>
-      </c>
-      <c r="K33" s="4">
-        <f>IF(G33&lt;&gt;G32,F33/G33,(K32*G32+F33)/G33)</f>
+        <v>25520631.65319283</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>25306956.38</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>25506624.4663872</v>
+      </c>
+      <c r="L33" s="4">
+        <f>(F33/J33)</f>
+        <v/>
+      </c>
+      <c r="M33" s="4">
+        <f>SUMIFS(F$2:F33,G$2:G33,G33)/G33</f>
         <v/>
       </c>
     </row>
@@ -1787,7 +1993,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>-399328.8661000021</v>
+        <v>-399328.8661</v>
       </c>
       <c r="C34" s="5" t="n">
         <v>24770883.78709283</v>
@@ -1796,26 +2002,32 @@
         <v>8372</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>328891</v>
+        <v>358791</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>-390956.8661000021</v>
+        <v>-390956.8661</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>25490731.65319283</v>
+        <v>25520631.65319283</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>25099774.78709283</v>
-      </c>
-      <c r="J34" s="6">
-        <f>(F34/H34)</f>
-        <v/>
-      </c>
-      <c r="K34" s="6">
-        <f>IF(G34&lt;&gt;G33,F34/G34,(K33*G33+F34)/G34)</f>
+        <v>25129674.78709283</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <v>25506624.4663872</v>
+      </c>
+      <c r="K34" s="5" t="n">
+        <v>25115667.6002872</v>
+      </c>
+      <c r="L34" s="6">
+        <f>(F34/J34)</f>
+        <v/>
+      </c>
+      <c r="M34" s="6">
+        <f>SUMIFS(F$2:F34,G$2:G34,G34)/G34</f>
         <v/>
       </c>
     </row>
@@ -1826,7 +2038,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>-109400.9442679994</v>
+        <v>-109400.944268</v>
       </c>
       <c r="C35" s="5" t="n">
         <v>24661482.84282483</v>
@@ -1835,26 +2047,32 @@
         <v>-5980</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>322911</v>
+        <v>352811</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-115380.9442679994</v>
+        <v>-115380.944268</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>25099774.78709283</v>
+        <v>25129674.78709283</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>24984393.84282483</v>
-      </c>
-      <c r="J35" s="6">
-        <f>(F35/H35)</f>
-        <v/>
-      </c>
-      <c r="K35" s="6">
-        <f>IF(G35&lt;&gt;G34,F35/G35,(K34*G34+F35)/G35)</f>
+        <v>25014293.84282483</v>
+      </c>
+      <c r="J35" s="5" t="n">
+        <v>25115667.6002872</v>
+      </c>
+      <c r="K35" s="5" t="n">
+        <v>25000286.6560192</v>
+      </c>
+      <c r="L35" s="6">
+        <f>(F35/J35)</f>
+        <v/>
+      </c>
+      <c r="M35" s="6">
+        <f>SUMIFS(F$2:F35,G$2:G35,G35)/G35</f>
         <v/>
       </c>
     </row>
@@ -1865,7 +2083,7 @@
         </is>
       </c>
       <c r="B36" s="5" t="n">
-        <v>90090.67919592187</v>
+        <v>90090.67919591999</v>
       </c>
       <c r="C36" s="5" t="n">
         <v>24751573.52202075</v>
@@ -1874,26 +2092,32 @@
         <v>2392</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>325303</v>
+        <v>355203</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>92482.67919592187</v>
+        <v>92482.67919591999</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>24984393.84282483</v>
+        <v>25014293.84282483</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>25076876.52202075</v>
-      </c>
-      <c r="J36" s="6">
-        <f>(F36/H36)</f>
-        <v/>
-      </c>
-      <c r="K36" s="6">
-        <f>IF(G36&lt;&gt;G35,F36/G36,(K35*G35+F36)/G36)</f>
+        <v>25106776.52202075</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <v>25000286.6560192</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>25092769.33521512</v>
+      </c>
+      <c r="L36" s="6">
+        <f>(F36/J36)</f>
+        <v/>
+      </c>
+      <c r="M36" s="6">
+        <f>SUMIFS(F$2:F36,G$2:G36,G36)/G36</f>
         <v/>
       </c>
     </row>
@@ -1904,7 +2128,7 @@
         </is>
       </c>
       <c r="B37" s="5" t="n">
-        <v>-524789.6097291969</v>
+        <v>-524789.6097291999</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>24226783.91229156</v>
@@ -1913,26 +2137,32 @@
         <v>-1196</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>324107</v>
+        <v>354007</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>-525985.6097291969</v>
+        <v>-525985.6097291999</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>25076876.52202075</v>
+        <v>25106776.52202075</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>24550890.91229156</v>
-      </c>
-      <c r="J37" s="6">
-        <f>(F37/H37)</f>
-        <v/>
-      </c>
-      <c r="K37" s="6">
-        <f>IF(G37&lt;&gt;G36,F37/G37,(K36*G36+F37)/G37)</f>
+        <v>24580790.91229156</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <v>25092769.33521512</v>
+      </c>
+      <c r="K37" s="5" t="n">
+        <v>24566783.72548592</v>
+      </c>
+      <c r="L37" s="6">
+        <f>(F37/J37)</f>
+        <v/>
+      </c>
+      <c r="M37" s="6">
+        <f>SUMIFS(F$2:F37,G$2:G37,G37)/G37</f>
         <v/>
       </c>
     </row>
@@ -1943,7 +2173,7 @@
         </is>
       </c>
       <c r="B38" s="5" t="n">
-        <v>-877565.3738762438</v>
+        <v>-877565.37387624</v>
       </c>
       <c r="C38" s="5" t="n">
         <v>23349218.53841531</v>
@@ -1952,26 +2182,32 @@
         <v>8372</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>332479</v>
+        <v>362379</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>-869193.3738762438</v>
+        <v>-869193.37387624</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>24550890.91229156</v>
+        <v>24580790.91229156</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>23681697.53841531</v>
-      </c>
-      <c r="J38" s="6">
-        <f>(F38/H38)</f>
-        <v/>
-      </c>
-      <c r="K38" s="6">
-        <f>IF(G38&lt;&gt;G37,F38/G38,(K37*G37+F38)/G38)</f>
+        <v>23711597.53841531</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <v>24566783.72548592</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>23697590.35160968</v>
+      </c>
+      <c r="L38" s="6">
+        <f>(F38/J38)</f>
+        <v/>
+      </c>
+      <c r="M38" s="6">
+        <f>SUMIFS(F$2:F38,G$2:G38,G38)/G38</f>
         <v/>
       </c>
     </row>
@@ -1982,7 +2218,7 @@
         </is>
       </c>
       <c r="B39" s="5" t="n">
-        <v>-140163.1418342404</v>
+        <v>-140163.14183424</v>
       </c>
       <c r="C39" s="5" t="n">
         <v>23209055.39658107</v>
@@ -1991,26 +2227,32 @@
         <v>-9568</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>322911</v>
+        <v>352811</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>-149731.1418342404</v>
+        <v>-149731.14183424</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>23681697.53841531</v>
+        <v>23711597.53841531</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>23531966.39658107</v>
-      </c>
-      <c r="J39" s="6">
-        <f>(F39/H39)</f>
-        <v/>
-      </c>
-      <c r="K39" s="6">
-        <f>IF(G39&lt;&gt;G38,F39/G39,(K38*G38+F39)/G39)</f>
+        <v>23561866.39658107</v>
+      </c>
+      <c r="J39" s="5" t="n">
+        <v>23697590.35160968</v>
+      </c>
+      <c r="K39" s="5" t="n">
+        <v>23547859.20977544</v>
+      </c>
+      <c r="L39" s="6">
+        <f>(F39/J39)</f>
+        <v/>
+      </c>
+      <c r="M39" s="6">
+        <f>SUMIFS(F$2:F39,G$2:G39,G39)/G39</f>
         <v/>
       </c>
     </row>
@@ -2021,7 +2263,7 @@
         </is>
       </c>
       <c r="B40" s="5" t="n">
-        <v>332664.6725000031</v>
+        <v>332664.6725</v>
       </c>
       <c r="C40" s="5" t="n">
         <v>23541720.06908108</v>
@@ -2030,26 +2272,32 @@
         <v>-5980</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>316931</v>
+        <v>346831</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>326684.6725000031</v>
+        <v>326684.6725</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>23531966.39658107</v>
+        <v>23561866.39658107</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>23858651.06908108</v>
-      </c>
-      <c r="J40" s="6">
-        <f>(F40/H40)</f>
-        <v/>
-      </c>
-      <c r="K40" s="6">
-        <f>IF(G40&lt;&gt;G39,F40/G40,(K39*G39+F40)/G40)</f>
+        <v>23888551.06908108</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <v>23547859.20977544</v>
+      </c>
+      <c r="K40" s="5" t="n">
+        <v>23874543.88227544</v>
+      </c>
+      <c r="L40" s="6">
+        <f>(F40/J40)</f>
+        <v/>
+      </c>
+      <c r="M40" s="6">
+        <f>SUMIFS(F$2:F40,G$2:G40,G40)/G40</f>
         <v/>
       </c>
     </row>
@@ -2060,7 +2308,7 @@
         </is>
       </c>
       <c r="B41" s="5" t="n">
-        <v>-158677.0540896803</v>
+        <v>-158677.05408968</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>23383043.0149914</v>
@@ -2069,26 +2317,32 @@
         <v>-15548</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>301383</v>
+        <v>331283</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-174225.0540896803</v>
+        <v>-174225.05408968</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>23858651.06908108</v>
+        <v>23888551.06908108</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>23684426.0149914</v>
-      </c>
-      <c r="J41" s="6">
-        <f>(F41/H41)</f>
-        <v/>
-      </c>
-      <c r="K41" s="6">
-        <f>IF(G41&lt;&gt;G40,F41/G41,(K40*G40+F41)/G41)</f>
+        <v>23714326.0149914</v>
+      </c>
+      <c r="J41" s="5" t="n">
+        <v>23874543.88227544</v>
+      </c>
+      <c r="K41" s="5" t="n">
+        <v>23700318.82818576</v>
+      </c>
+      <c r="L41" s="6">
+        <f>(F41/J41)</f>
+        <v/>
+      </c>
+      <c r="M41" s="6">
+        <f>SUMIFS(F$2:F41,G$2:G41,G41)/G41</f>
         <v/>
       </c>
     </row>
@@ -2099,7 +2353,7 @@
         </is>
       </c>
       <c r="B42" s="5" t="n">
-        <v>380386.1955000013</v>
+        <v>380386.1955</v>
       </c>
       <c r="C42" s="5" t="n">
         <v>23763429.2104914</v>
@@ -2108,26 +2362,32 @@
         <v>-44252</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>257131</v>
+        <v>287031</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>336134.1955000013</v>
+        <v>336134.1955</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>23684426.0149914</v>
+        <v>23714326.0149914</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>24020560.2104914</v>
-      </c>
-      <c r="J42" s="6">
-        <f>(F42/H42)</f>
-        <v/>
-      </c>
-      <c r="K42" s="6">
-        <f>IF(G42&lt;&gt;G41,F42/G42,(K41*G41+F42)/G42)</f>
+        <v>24050460.2104914</v>
+      </c>
+      <c r="J42" s="5" t="n">
+        <v>23700318.82818576</v>
+      </c>
+      <c r="K42" s="5" t="n">
+        <v>24036453.02368576</v>
+      </c>
+      <c r="L42" s="6">
+        <f>(F42/J42)</f>
+        <v/>
+      </c>
+      <c r="M42" s="6">
+        <f>SUMIFS(F$2:F42,G$2:G42,G42)/G42</f>
         <v/>
       </c>
     </row>
@@ -2138,7 +2398,7 @@
         </is>
       </c>
       <c r="B43" s="5" t="n">
-        <v>-496348.1846000031</v>
+        <v>-496348.1846</v>
       </c>
       <c r="C43" s="5" t="n">
         <v>23267081.02589139</v>
@@ -2147,26 +2407,32 @@
         <v>-2392</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>254739</v>
+        <v>284639</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>-498740.1846000031</v>
+        <v>-498740.1846</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>24020560.2104914</v>
+        <v>24050460.2104914</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>23521820.02589139</v>
-      </c>
-      <c r="J43" s="6">
-        <f>(F43/H43)</f>
-        <v/>
-      </c>
-      <c r="K43" s="6">
-        <f>IF(G43&lt;&gt;G42,F43/G43,(K42*G42+F43)/G43)</f>
+        <v>23551720.02589139</v>
+      </c>
+      <c r="J43" s="5" t="n">
+        <v>24036453.02368576</v>
+      </c>
+      <c r="K43" s="5" t="n">
+        <v>23537712.83908576</v>
+      </c>
+      <c r="L43" s="6">
+        <f>(F43/J43)</f>
+        <v/>
+      </c>
+      <c r="M43" s="6">
+        <f>SUMIFS(F$2:F43,G$2:G43,G43)/G43</f>
         <v/>
       </c>
     </row>
@@ -2177,7 +2443,7 @@
         </is>
       </c>
       <c r="B44" s="5" t="n">
-        <v>-78039.00401239842</v>
+        <v>-78039.00401239999</v>
       </c>
       <c r="C44" s="5" t="n">
         <v>23189042.021879</v>
@@ -2186,26 +2452,32 @@
         <v>-1196</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>253543</v>
+        <v>283443</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>-79235.00401239842</v>
+        <v>-79235.00401239999</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>23521820.02589139</v>
+        <v>23551720.02589139</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>23442585.021879</v>
-      </c>
-      <c r="J44" s="6">
-        <f>(F44/H44)</f>
-        <v/>
-      </c>
-      <c r="K44" s="6">
-        <f>IF(G44&lt;&gt;G43,F44/G44,(K43*G43+F44)/G44)</f>
+        <v>23472485.021879</v>
+      </c>
+      <c r="J44" s="5" t="n">
+        <v>23537712.83908576</v>
+      </c>
+      <c r="K44" s="5" t="n">
+        <v>23458477.83507336</v>
+      </c>
+      <c r="L44" s="6">
+        <f>(F44/J44)</f>
+        <v/>
+      </c>
+      <c r="M44" s="6">
+        <f>SUMIFS(F$2:F44,G$2:G44,G44)/G44</f>
         <v/>
       </c>
     </row>
@@ -2216,7 +2488,7 @@
         </is>
       </c>
       <c r="B45" s="5" t="n">
-        <v>564204.1600000001</v>
+        <v>564204.16</v>
       </c>
       <c r="C45" s="5" t="n">
         <v>23733246.181879</v>
@@ -2225,26 +2497,32 @@
         <v>-33488</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>240055</v>
+        <v>269955</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>530716.1600000001</v>
+        <v>530716.16</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>23442585.021879</v>
+        <v>23472485.021879</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>23973301.181879</v>
-      </c>
-      <c r="J45" s="6">
-        <f>(F45/H45)</f>
-        <v/>
-      </c>
-      <c r="K45" s="6">
-        <f>IF(G45&lt;&gt;G44,F45/G45,(K44*G44+F45)/G45)</f>
+        <v>24003201.181879</v>
+      </c>
+      <c r="J45" s="5" t="n">
+        <v>23458477.83507336</v>
+      </c>
+      <c r="K45" s="5" t="n">
+        <v>23989193.99507336</v>
+      </c>
+      <c r="L45" s="6">
+        <f>(F45/J45)</f>
+        <v/>
+      </c>
+      <c r="M45" s="6">
+        <f>SUMIFS(F$2:F45,G$2:G45,G45)/G45</f>
         <v/>
       </c>
     </row>
@@ -2255,7 +2533,7 @@
         </is>
       </c>
       <c r="B46" s="5" t="n">
-        <v>-177702.6000000015</v>
+        <v>-177702.6</v>
       </c>
       <c r="C46" s="5" t="n">
         <v>23555543.58187899</v>
@@ -2264,26 +2542,32 @@
         <v>-8372</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>231683</v>
+        <v>261583</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>-186074.6000000015</v>
+        <v>-186074.6</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>23973301.181879</v>
+        <v>24003201.181879</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>23787226.58187899</v>
-      </c>
-      <c r="J46" s="6">
-        <f>(F46/H46)</f>
-        <v/>
-      </c>
-      <c r="K46" s="6">
-        <f>IF(G46&lt;&gt;G45,F46/G46,(K45*G45+F46)/G46)</f>
+        <v>23817126.58187899</v>
+      </c>
+      <c r="J46" s="5" t="n">
+        <v>23989193.99507336</v>
+      </c>
+      <c r="K46" s="5" t="n">
+        <v>23803119.39507336</v>
+      </c>
+      <c r="L46" s="6">
+        <f>(F46/J46)</f>
+        <v/>
+      </c>
+      <c r="M46" s="6">
+        <f>SUMIFS(F$2:F46,G$2:G46,G46)/G46</f>
         <v/>
       </c>
     </row>
@@ -2294,7 +2578,7 @@
         </is>
       </c>
       <c r="B47" s="5" t="n">
-        <v>149344.5193000026</v>
+        <v>149344.5193</v>
       </c>
       <c r="C47" s="5" t="n">
         <v>23704888.101179</v>
@@ -2303,26 +2587,32 @@
         <v>8372</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>240055</v>
+        <v>269955</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>157716.5193000026</v>
+        <v>157716.5193</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>23787226.58187899</v>
+        <v>23817126.58187899</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>23944943.101179</v>
-      </c>
-      <c r="J47" s="6">
-        <f>(F47/H47)</f>
-        <v/>
-      </c>
-      <c r="K47" s="6">
-        <f>IF(G47&lt;&gt;G46,F47/G47,(K46*G46+F47)/G47)</f>
+        <v>23974843.101179</v>
+      </c>
+      <c r="J47" s="5" t="n">
+        <v>23803119.39507336</v>
+      </c>
+      <c r="K47" s="5" t="n">
+        <v>23960835.91437336</v>
+      </c>
+      <c r="L47" s="6">
+        <f>(F47/J47)</f>
+        <v/>
+      </c>
+      <c r="M47" s="6">
+        <f>SUMIFS(F$2:F47,G$2:G47,G47)/G47</f>
         <v/>
       </c>
     </row>
@@ -2333,7 +2623,7 @@
         </is>
       </c>
       <c r="B48" s="5" t="n">
-        <v>119322.1112760009</v>
+        <v>119322.111276</v>
       </c>
       <c r="C48" s="5" t="n">
         <v>23827047.122455</v>
@@ -2342,26 +2632,32 @@
         <v>-2392</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>237663</v>
+        <v>267563</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>116930.1112760009</v>
+        <v>116930.111276</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>23944943.101179</v>
+        <v>23974843.101179</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>24064710.122455</v>
-      </c>
-      <c r="J48" s="6">
-        <f>(F48/H48)</f>
-        <v/>
-      </c>
-      <c r="K48" s="6">
-        <f>IF(G48&lt;&gt;G47,F48/G48,(K47*G47+F48)/G48)</f>
+        <v>24094610.122455</v>
+      </c>
+      <c r="J48" s="5" t="n">
+        <v>23960835.91437336</v>
+      </c>
+      <c r="K48" s="5" t="n">
+        <v>24077766.02564936</v>
+      </c>
+      <c r="L48" s="6">
+        <f>(F48/J48)</f>
+        <v/>
+      </c>
+      <c r="M48" s="6">
+        <f>SUMIFS(F$2:F48,G$2:G48,G48)/G48</f>
         <v/>
       </c>
     </row>
@@ -2372,7 +2668,7 @@
         </is>
       </c>
       <c r="B49" s="5" t="n">
-        <v>174535.766491998</v>
+        <v>174535.766492</v>
       </c>
       <c r="C49" s="5" t="n">
         <v>24001582.888947</v>
@@ -2381,26 +2677,32 @@
         <v>-7176</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>230487</v>
+        <v>260387</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>167359.766491998</v>
+        <v>167359.766492</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>24064710.122455</v>
+        <v>24094610.122455</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>24232069.888947</v>
-      </c>
-      <c r="J49" s="6">
-        <f>(F49/H49)</f>
-        <v/>
-      </c>
-      <c r="K49" s="6">
-        <f>IF(G49&lt;&gt;G48,F49/G49,(K48*G48+F49)/G49)</f>
+        <v>24261969.888947</v>
+      </c>
+      <c r="J49" s="5" t="n">
+        <v>24077766.02564936</v>
+      </c>
+      <c r="K49" s="5" t="n">
+        <v>24245125.79214136</v>
+      </c>
+      <c r="L49" s="6">
+        <f>(F49/J49)</f>
+        <v/>
+      </c>
+      <c r="M49" s="6">
+        <f>SUMIFS(F$2:F49,G$2:G49,G49)/G49</f>
         <v/>
       </c>
     </row>
@@ -2411,7 +2713,7 @@
         </is>
       </c>
       <c r="B50" s="5" t="n">
-        <v>-215674.3775399998</v>
+        <v>-215674.37754</v>
       </c>
       <c r="C50" s="5" t="n">
         <v>23785908.511407</v>
@@ -2420,26 +2722,32 @@
         <v>-11960</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>218527</v>
+        <v>248427</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>-227634.3775399998</v>
+        <v>-227634.37754</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>24232069.888947</v>
+        <v>24261969.888947</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>24004435.511407</v>
-      </c>
-      <c r="J50" s="6">
-        <f>(F50/H50)</f>
-        <v/>
-      </c>
-      <c r="K50" s="6">
-        <f>IF(G50&lt;&gt;G49,F50/G50,(K49*G49+F50)/G50)</f>
+        <v>24034335.511407</v>
+      </c>
+      <c r="J50" s="5" t="n">
+        <v>24245125.79214136</v>
+      </c>
+      <c r="K50" s="5" t="n">
+        <v>24017491.41460136</v>
+      </c>
+      <c r="L50" s="6">
+        <f>(F50/J50)</f>
+        <v/>
+      </c>
+      <c r="M50" s="6">
+        <f>SUMIFS(F$2:F50,G$2:G50,G50)/G50</f>
         <v/>
       </c>
     </row>
@@ -2450,7 +2758,7 @@
         </is>
       </c>
       <c r="B51" s="5" t="n">
-        <v>348993.4493215989</v>
+        <v>348993.4493216</v>
       </c>
       <c r="C51" s="5" t="n">
         <v>24144903.08072859</v>
@@ -2459,26 +2767,32 @@
         <v>7176</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>225703</v>
+        <v>255603</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>356169.4493215989</v>
+        <v>356169.4493216</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>24004435.511407</v>
+        <v>24034335.511407</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>24370606.08072859</v>
-      </c>
-      <c r="J51" s="6">
-        <f>(F51/H51)</f>
-        <v/>
-      </c>
-      <c r="K51" s="6">
-        <f>IF(G51&lt;&gt;G50,F51/G51,(K50*G50+F51)/G51)</f>
+        <v>24400506.08072859</v>
+      </c>
+      <c r="J51" s="5" t="n">
+        <v>24017491.41460136</v>
+      </c>
+      <c r="K51" s="5" t="n">
+        <v>24373660.86392296</v>
+      </c>
+      <c r="L51" s="6">
+        <f>(F51/J51)</f>
+        <v/>
+      </c>
+      <c r="M51" s="6">
+        <f>SUMIFS(F$2:F51,G$2:G51,G51)/G51</f>
         <v/>
       </c>
     </row>
@@ -2489,7 +2803,7 @@
         </is>
       </c>
       <c r="B52" s="5" t="n">
-        <v>105149.0102344789</v>
+        <v>105149.01023448</v>
       </c>
       <c r="C52" s="5" t="n">
         <v>24250052.09096307</v>
@@ -2498,26 +2812,32 @@
         <v>8372</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>234075</v>
+        <v>263975</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>113521.0102344789</v>
+        <v>113521.01023448</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>24370606.08072859</v>
+        <v>24400506.08072859</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>24484127.09096307</v>
-      </c>
-      <c r="J52" s="6">
-        <f>(F52/H52)</f>
-        <v/>
-      </c>
-      <c r="K52" s="6">
-        <f>IF(G52&lt;&gt;G51,F52/G52,(K51*G51+F52)/G52)</f>
+        <v>24514027.09096307</v>
+      </c>
+      <c r="J52" s="5" t="n">
+        <v>24373660.86392296</v>
+      </c>
+      <c r="K52" s="5" t="n">
+        <v>24487181.87415744</v>
+      </c>
+      <c r="L52" s="6">
+        <f>(F52/J52)</f>
+        <v/>
+      </c>
+      <c r="M52" s="6">
+        <f>SUMIFS(F$2:F52,G$2:G52,G52)/G52</f>
         <v/>
       </c>
     </row>
@@ -2528,7 +2848,7 @@
         </is>
       </c>
       <c r="B53" s="8" t="n">
-        <v>764894.6276176795</v>
+        <v>764894.6276176799</v>
       </c>
       <c r="C53" s="8" t="n">
         <v>25014946.71858075</v>
@@ -2537,26 +2857,32 @@
         <v>9568</v>
       </c>
       <c r="E53" s="8" t="n">
-        <v>243643</v>
+        <v>273543</v>
       </c>
       <c r="F53" s="8" t="n">
-        <v>774462.6276176795</v>
+        <v>774462.6276176799</v>
       </c>
       <c r="G53" s="8" t="n">
         <v>25306956.38</v>
       </c>
       <c r="H53" s="8" t="n">
-        <v>24484127.09096307</v>
+        <v>24514027.09096307</v>
       </c>
       <c r="I53" s="8" t="n">
-        <v>25258589.71858075</v>
-      </c>
-      <c r="J53" s="9">
-        <f>(F53/H53)</f>
-        <v/>
-      </c>
-      <c r="K53" s="9">
-        <f>IF(G53&lt;&gt;G52,F53/G53,(K52*G52+F53)/G53)</f>
+        <v>25288489.71858075</v>
+      </c>
+      <c r="J53" s="8" t="n">
+        <v>24487181.87415744</v>
+      </c>
+      <c r="K53" s="8" t="n">
+        <v>25261644.50177512</v>
+      </c>
+      <c r="L53" s="9">
+        <f>(F53/J53)</f>
+        <v/>
+      </c>
+      <c r="M53" s="9">
+        <f>SUMIFS(F$2:F53,G$2:G53,G53)/G53</f>
         <v/>
       </c>
     </row>
@@ -2567,19 +2893,19 @@
         </is>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-9254.999999996275</v>
+        <v>-9255</v>
       </c>
       <c r="C54" s="3" t="n">
         <v>25005691.71858076</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>0</v>
+        <v>-4784</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>243643</v>
+        <v>268759</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>-9254.999999996275</v>
+        <v>-14039</v>
       </c>
       <c r="G54" s="3" t="n">
         <v>25248131.1</v>
@@ -2588,14 +2914,20 @@
         <v>25248131.1</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>25249334.71858076</v>
-      </c>
-      <c r="J54" s="4">
-        <f>(F54/H54)</f>
-        <v/>
-      </c>
-      <c r="K54" s="4">
-        <f>IF(G54&lt;&gt;G53,F54/G54,(K53*G53+F54)/G54)</f>
+        <v>25274450.71858076</v>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>25248131.1</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>25234092.1</v>
+      </c>
+      <c r="L54" s="4">
+        <f>(F54/J54)</f>
+        <v/>
+      </c>
+      <c r="M54" s="4">
+        <f>SUMIFS(F$2:F54,G$2:G54,G54)/G54</f>
         <v/>
       </c>
     </row>
@@ -2606,35 +2938,41 @@
         </is>
       </c>
       <c r="B55" s="5" t="n">
-        <v>-586730.3600000031</v>
+        <v>-586730.36</v>
       </c>
       <c r="C55" s="5" t="n">
         <v>24418961.35858075</v>
       </c>
       <c r="D55" s="5" t="n">
-        <v>0</v>
+        <v>-4784</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>243643</v>
+        <v>263975</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>-586730.3600000031</v>
+        <v>-591514.36</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>25249334.71858076</v>
+        <v>25274450.71858076</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>24662604.35858075</v>
-      </c>
-      <c r="J55" s="6">
-        <f>(F55/H55)</f>
-        <v/>
-      </c>
-      <c r="K55" s="6">
-        <f>IF(G55&lt;&gt;G54,F55/G55,(K54*G54+F55)/G55)</f>
+        <v>24682936.35858075</v>
+      </c>
+      <c r="J55" s="5" t="n">
+        <v>25234092.1</v>
+      </c>
+      <c r="K55" s="5" t="n">
+        <v>24642577.74</v>
+      </c>
+      <c r="L55" s="6">
+        <f>(F55/J55)</f>
+        <v/>
+      </c>
+      <c r="M55" s="6">
+        <f>SUMIFS(F$2:F55,G$2:G55,G55)/G55</f>
         <v/>
       </c>
     </row>
@@ -2645,7 +2983,7 @@
         </is>
       </c>
       <c r="B56" s="5" t="n">
-        <v>-478939.5100000011</v>
+        <v>-478939.51</v>
       </c>
       <c r="C56" s="5" t="n">
         <v>23944477.23858075</v>
@@ -2654,26 +2992,32 @@
         <v>0</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>243643</v>
+        <v>263975</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>-478939.5100000011</v>
+        <v>-478939.51</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>24662604.35858075</v>
+        <v>24682936.35858075</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>24188120.23858075</v>
-      </c>
-      <c r="J56" s="6">
-        <f>(F56/H56)</f>
-        <v/>
-      </c>
-      <c r="K56" s="6">
-        <f>IF(G56&lt;&gt;G55,F56/G56,(K55*G55+F56)/G56)</f>
+        <v>24208452.23858075</v>
+      </c>
+      <c r="J56" s="5" t="n">
+        <v>24642577.74</v>
+      </c>
+      <c r="K56" s="5" t="n">
+        <v>24163638.23</v>
+      </c>
+      <c r="L56" s="6">
+        <f>(F56/J56)</f>
+        <v/>
+      </c>
+      <c r="M56" s="6">
+        <f>SUMIFS(F$2:F56,G$2:G56,G56)/G56</f>
         <v/>
       </c>
     </row>
@@ -2684,35 +3028,41 @@
         </is>
       </c>
       <c r="B57" s="5" t="n">
-        <v>-540732.1039775982</v>
+        <v>-540732.1039776</v>
       </c>
       <c r="C57" s="5" t="n">
         <v>23403745.13460315</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>0</v>
+        <v>4784</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>243643</v>
+        <v>268759</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>-540732.1039775982</v>
+        <v>-535948.1039776</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>24188120.23858075</v>
+        <v>24208452.23858075</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>23647388.13460315</v>
-      </c>
-      <c r="J57" s="6">
-        <f>(F57/H57)</f>
-        <v/>
-      </c>
-      <c r="K57" s="6">
-        <f>IF(G57&lt;&gt;G56,F57/G57,(K56*G56+F57)/G57)</f>
+        <v>23672504.13460315</v>
+      </c>
+      <c r="J57" s="5" t="n">
+        <v>24163638.23</v>
+      </c>
+      <c r="K57" s="5" t="n">
+        <v>23627690.1260224</v>
+      </c>
+      <c r="L57" s="6">
+        <f>(F57/J57)</f>
+        <v/>
+      </c>
+      <c r="M57" s="6">
+        <f>SUMIFS(F$2:F57,G$2:G57,G57)/G57</f>
         <v/>
       </c>
     </row>
@@ -2732,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>243643</v>
+        <v>268759</v>
       </c>
       <c r="F58" s="5" t="n">
         <v>0</v>
@@ -2741,17 +3091,23 @@
         <v>25248131.1</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>23647388.13460315</v>
+        <v>23672504.13460315</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>23647388.13460315</v>
-      </c>
-      <c r="J58" s="6">
-        <f>(F58/H58)</f>
-        <v/>
-      </c>
-      <c r="K58" s="6">
-        <f>IF(G58&lt;&gt;G57,F58/G58,(K57*G57+F58)/G58)</f>
+        <v>23672504.13460315</v>
+      </c>
+      <c r="J58" s="5" t="n">
+        <v>23627690.1260224</v>
+      </c>
+      <c r="K58" s="5" t="n">
+        <v>23627690.1260224</v>
+      </c>
+      <c r="L58" s="6">
+        <f>(F58/J58)</f>
+        <v/>
+      </c>
+      <c r="M58" s="6">
+        <f>SUMIFS(F$2:F58,G$2:G58,G58)/G58</f>
         <v/>
       </c>
     </row>
@@ -2762,35 +3118,41 @@
         </is>
       </c>
       <c r="B59" s="5" t="n">
-        <v>298553.7100000009</v>
+        <v>298553.71</v>
       </c>
       <c r="C59" s="5" t="n">
         <v>23702298.84460315</v>
       </c>
       <c r="D59" s="5" t="n">
-        <v>0</v>
+        <v>8372</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>243643</v>
+        <v>277131</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>298553.7100000009</v>
+        <v>306925.71</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>23647388.13460315</v>
+        <v>23672504.13460315</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>23945941.84460315</v>
-      </c>
-      <c r="J59" s="6">
-        <f>(F59/H59)</f>
-        <v/>
-      </c>
-      <c r="K59" s="6">
-        <f>IF(G59&lt;&gt;G58,F59/G59,(K58*G58+F59)/G59)</f>
+        <v>23979429.84460315</v>
+      </c>
+      <c r="J59" s="5" t="n">
+        <v>23627690.1260224</v>
+      </c>
+      <c r="K59" s="5" t="n">
+        <v>23934615.8360224</v>
+      </c>
+      <c r="L59" s="6">
+        <f>(F59/J59)</f>
+        <v/>
+      </c>
+      <c r="M59" s="6">
+        <f>SUMIFS(F$2:F59,G$2:G59,G59)/G59</f>
         <v/>
       </c>
     </row>
@@ -2801,7 +3163,7 @@
         </is>
       </c>
       <c r="B60" s="5" t="n">
-        <v>126681.2486799993</v>
+        <v>126681.24868</v>
       </c>
       <c r="C60" s="5" t="n">
         <v>23828980.09328315</v>
@@ -2810,26 +3172,32 @@
         <v>0</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>243643</v>
+        <v>277131</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>126681.2486799993</v>
+        <v>126681.24868</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>23945941.84460315</v>
+        <v>23979429.84460315</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>24072623.09328315</v>
-      </c>
-      <c r="J60" s="6">
-        <f>(F60/H60)</f>
-        <v/>
-      </c>
-      <c r="K60" s="6">
-        <f>IF(G60&lt;&gt;G59,F60/G60,(K59*G59+F60)/G60)</f>
+        <v>24106111.09328315</v>
+      </c>
+      <c r="J60" s="5" t="n">
+        <v>23934615.8360224</v>
+      </c>
+      <c r="K60" s="5" t="n">
+        <v>24061297.0847024</v>
+      </c>
+      <c r="L60" s="6">
+        <f>(F60/J60)</f>
+        <v/>
+      </c>
+      <c r="M60" s="6">
+        <f>SUMIFS(F$2:F60,G$2:G60,G60)/G60</f>
         <v/>
       </c>
     </row>
@@ -2840,7 +3208,7 @@
         </is>
       </c>
       <c r="B61" s="5" t="n">
-        <v>-540419.8228200041</v>
+        <v>-540419.82282</v>
       </c>
       <c r="C61" s="5" t="n">
         <v>23288560.27046315</v>
@@ -2849,26 +3217,32 @@
         <v>0</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>243643</v>
+        <v>277131</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>-540419.8228200041</v>
+        <v>-540419.82282</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>24072623.09328315</v>
+        <v>24106111.09328315</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>23532203.27046315</v>
-      </c>
-      <c r="J61" s="6">
-        <f>(F61/H61)</f>
-        <v/>
-      </c>
-      <c r="K61" s="6">
-        <f>IF(G61&lt;&gt;G60,F61/G61,(K60*G60+F61)/G61)</f>
+        <v>23565691.27046315</v>
+      </c>
+      <c r="J61" s="5" t="n">
+        <v>24061297.0847024</v>
+      </c>
+      <c r="K61" s="5" t="n">
+        <v>23520877.2618824</v>
+      </c>
+      <c r="L61" s="6">
+        <f>(F61/J61)</f>
+        <v/>
+      </c>
+      <c r="M61" s="6">
+        <f>SUMIFS(F$2:F61,G$2:G61,G61)/G61</f>
         <v/>
       </c>
     </row>
@@ -2879,35 +3253,41 @@
         </is>
       </c>
       <c r="B62" s="5" t="n">
-        <v>333449.3300000019</v>
+        <v>333449.33</v>
       </c>
       <c r="C62" s="5" t="n">
         <v>23622009.60046315</v>
       </c>
       <c r="D62" s="5" t="n">
-        <v>0</v>
+        <v>8372</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>243643</v>
+        <v>285503</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>333449.3300000019</v>
+        <v>341821.33</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>23532203.27046315</v>
+        <v>23565691.27046315</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>23865652.60046315</v>
-      </c>
-      <c r="J62" s="6">
-        <f>(F62/H62)</f>
-        <v/>
-      </c>
-      <c r="K62" s="6">
-        <f>IF(G62&lt;&gt;G61,F62/G62,(K61*G61+F62)/G62)</f>
+        <v>23907512.60046315</v>
+      </c>
+      <c r="J62" s="5" t="n">
+        <v>23520877.2618824</v>
+      </c>
+      <c r="K62" s="5" t="n">
+        <v>23862698.5918824</v>
+      </c>
+      <c r="L62" s="6">
+        <f>(F62/J62)</f>
+        <v/>
+      </c>
+      <c r="M62" s="6">
+        <f>SUMIFS(F$2:F62,G$2:G62,G62)/G62</f>
         <v/>
       </c>
     </row>
@@ -2918,7 +3298,7 @@
         </is>
       </c>
       <c r="B63" s="5" t="n">
-        <v>-409257.8564209603</v>
+        <v>-409257.85642096</v>
       </c>
       <c r="C63" s="5" t="n">
         <v>23212751.74404219</v>
@@ -2927,26 +3307,32 @@
         <v>0</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>243643</v>
+        <v>285503</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>-409257.8564209603</v>
+        <v>-409257.85642096</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>23865652.60046315</v>
+        <v>23907512.60046315</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>23456394.74404219</v>
-      </c>
-      <c r="J63" s="6">
-        <f>(F63/H63)</f>
-        <v/>
-      </c>
-      <c r="K63" s="6">
-        <f>IF(G63&lt;&gt;G62,F63/G63,(K62*G62+F63)/G63)</f>
+        <v>23498254.74404219</v>
+      </c>
+      <c r="J63" s="5" t="n">
+        <v>23862698.5918824</v>
+      </c>
+      <c r="K63" s="5" t="n">
+        <v>23453440.73546144</v>
+      </c>
+      <c r="L63" s="6">
+        <f>(F63/J63)</f>
+        <v/>
+      </c>
+      <c r="M63" s="6">
+        <f>SUMIFS(F$2:F63,G$2:G63,G63)/G63</f>
         <v/>
       </c>
     </row>
@@ -2957,35 +3343,41 @@
         </is>
       </c>
       <c r="B64" s="5" t="n">
-        <v>88238.32500000224</v>
+        <v>88238.325</v>
       </c>
       <c r="C64" s="5" t="n">
         <v>23311916.76904219</v>
       </c>
       <c r="D64" s="5" t="n">
-        <v>0</v>
+        <v>-10764</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>243643</v>
+        <v>274739</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>88238.32500000224</v>
+        <v>77474.325</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>23456394.74404219</v>
+        <v>23498254.74404219</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>23555559.76904219</v>
-      </c>
-      <c r="J64" s="6">
-        <f>(F64/H64)</f>
-        <v/>
-      </c>
-      <c r="K64" s="6">
-        <f>IF(G64&lt;&gt;G63,F64/G64,(K63*G63+F64)/G64)</f>
+        <v>23586655.76904219</v>
+      </c>
+      <c r="J64" s="5" t="n">
+        <v>23453440.73546144</v>
+      </c>
+      <c r="K64" s="5" t="n">
+        <v>23530915.06046144</v>
+      </c>
+      <c r="L64" s="6">
+        <f>(F64/J64)</f>
+        <v/>
+      </c>
+      <c r="M64" s="6">
+        <f>SUMIFS(F$2:F64,G$2:G64,G64)/G64</f>
         <v/>
       </c>
     </row>
@@ -2996,35 +3388,41 @@
         </is>
       </c>
       <c r="B65" s="5" t="n">
-        <v>-210471.843940001</v>
+        <v>-210471.84394</v>
       </c>
       <c r="C65" s="5" t="n">
         <v>23101444.92510219</v>
       </c>
       <c r="D65" s="5" t="n">
-        <v>0</v>
+        <v>3588</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>243643</v>
+        <v>278327</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>-210471.843940001</v>
+        <v>-206883.84394</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>23555559.76904219</v>
+        <v>23586655.76904219</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>23345087.92510219</v>
-      </c>
-      <c r="J65" s="6">
-        <f>(F65/H65)</f>
-        <v/>
-      </c>
-      <c r="K65" s="6">
-        <f>IF(G65&lt;&gt;G64,F65/G65,(K64*G64+F65)/G65)</f>
+        <v>23379771.92510219</v>
+      </c>
+      <c r="J65" s="5" t="n">
+        <v>23530915.06046144</v>
+      </c>
+      <c r="K65" s="5" t="n">
+        <v>23324031.21652144</v>
+      </c>
+      <c r="L65" s="6">
+        <f>(F65/J65)</f>
+        <v/>
+      </c>
+      <c r="M65" s="6">
+        <f>SUMIFS(F$2:F65,G$2:G65,G65)/G65</f>
         <v/>
       </c>
     </row>
@@ -3035,35 +3433,41 @@
         </is>
       </c>
       <c r="B66" s="5" t="n">
-        <v>-216363.5399999954</v>
+        <v>-216363.54</v>
       </c>
       <c r="C66" s="5" t="n">
         <v>22885081.3851022</v>
       </c>
       <c r="D66" s="5" t="n">
-        <v>0</v>
+        <v>7176</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>243643</v>
+        <v>285503</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>-216363.5399999954</v>
+        <v>-209187.54</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>23345087.92510219</v>
+        <v>23379771.92510219</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>23128724.3851022</v>
-      </c>
-      <c r="J66" s="6">
-        <f>(F66/H66)</f>
-        <v/>
-      </c>
-      <c r="K66" s="6">
-        <f>IF(G66&lt;&gt;G65,F66/G66,(K65*G65+F66)/G66)</f>
+        <v>23170584.3851022</v>
+      </c>
+      <c r="J66" s="5" t="n">
+        <v>23324031.21652144</v>
+      </c>
+      <c r="K66" s="5" t="n">
+        <v>23114843.67652144</v>
+      </c>
+      <c r="L66" s="6">
+        <f>(F66/J66)</f>
+        <v/>
+      </c>
+      <c r="M66" s="6">
+        <f>SUMIFS(F$2:F66,G$2:G66,G66)/G66</f>
         <v/>
       </c>
     </row>
@@ -3074,35 +3478,41 @@
         </is>
       </c>
       <c r="B67" s="5" t="n">
-        <v>-434674.6800000034</v>
+        <v>-434674.68</v>
       </c>
       <c r="C67" s="5" t="n">
         <v>22450406.70510219</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>0</v>
+        <v>-1196</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>243643</v>
+        <v>284307</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>-434674.6800000034</v>
+        <v>-435870.68</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>23128724.3851022</v>
+        <v>23170584.3851022</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>22694049.70510219</v>
-      </c>
-      <c r="J67" s="6">
-        <f>(F67/H67)</f>
-        <v/>
-      </c>
-      <c r="K67" s="6">
-        <f>IF(G67&lt;&gt;G66,F67/G67,(K66*G66+F67)/G67)</f>
+        <v>22734713.70510219</v>
+      </c>
+      <c r="J67" s="5" t="n">
+        <v>23114843.67652144</v>
+      </c>
+      <c r="K67" s="5" t="n">
+        <v>22678972.99652144</v>
+      </c>
+      <c r="L67" s="6">
+        <f>(F67/J67)</f>
+        <v/>
+      </c>
+      <c r="M67" s="6">
+        <f>SUMIFS(F$2:F67,G$2:G67,G67)/G67</f>
         <v/>
       </c>
     </row>
@@ -3113,35 +3523,41 @@
         </is>
       </c>
       <c r="B68" s="5" t="n">
-        <v>-384491.120000001</v>
+        <v>-384491.12</v>
       </c>
       <c r="C68" s="5" t="n">
         <v>22065915.58510219</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>0</v>
+        <v>-4784</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>243643</v>
+        <v>279523</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>-384491.120000001</v>
+        <v>-389275.12</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>22694049.70510219</v>
+        <v>22734713.70510219</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>22309558.58510219</v>
-      </c>
-      <c r="J68" s="6">
-        <f>(F68/H68)</f>
-        <v/>
-      </c>
-      <c r="K68" s="6">
-        <f>IF(G68&lt;&gt;G67,F68/G68,(K67*G67+F68)/G68)</f>
+        <v>22345438.58510219</v>
+      </c>
+      <c r="J68" s="5" t="n">
+        <v>22678972.99652144</v>
+      </c>
+      <c r="K68" s="5" t="n">
+        <v>22289697.87652144</v>
+      </c>
+      <c r="L68" s="6">
+        <f>(F68/J68)</f>
+        <v/>
+      </c>
+      <c r="M68" s="6">
+        <f>SUMIFS(F$2:F68,G$2:G68,G68)/G68</f>
         <v/>
       </c>
     </row>
@@ -3152,35 +3568,41 @@
         </is>
       </c>
       <c r="B69" s="5" t="n">
-        <v>-363073.6400000006</v>
+        <v>-363073.64</v>
       </c>
       <c r="C69" s="5" t="n">
         <v>21702841.94510219</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>0</v>
+        <v>-2751</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>243643</v>
+        <v>276772</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>-363073.6400000006</v>
+        <v>-365824.64</v>
       </c>
       <c r="G69" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H69" s="5" t="n">
-        <v>22309558.58510219</v>
+        <v>22345438.58510219</v>
       </c>
       <c r="I69" s="5" t="n">
-        <v>21946484.94510219</v>
-      </c>
-      <c r="J69" s="6">
-        <f>(F69/H69)</f>
-        <v/>
-      </c>
-      <c r="K69" s="6">
-        <f>IF(G69&lt;&gt;G68,F69/G69,(K68*G68+F69)/G69)</f>
+        <v>21979613.94510219</v>
+      </c>
+      <c r="J69" s="5" t="n">
+        <v>22289697.87652144</v>
+      </c>
+      <c r="K69" s="5" t="n">
+        <v>21923873.23652144</v>
+      </c>
+      <c r="L69" s="6">
+        <f>(F69/J69)</f>
+        <v/>
+      </c>
+      <c r="M69" s="6">
+        <f>SUMIFS(F$2:F69,G$2:G69,G69)/G69</f>
         <v/>
       </c>
     </row>
@@ -3191,35 +3613,41 @@
         </is>
       </c>
       <c r="B70" s="5" t="n">
-        <v>-1410136.129776798</v>
+        <v>-1410136.1297768</v>
       </c>
       <c r="C70" s="5" t="n">
         <v>20267705.81532539</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>0</v>
+        <v>-9209</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>243643</v>
+        <v>267563</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>-1410136.129776798</v>
+        <v>-1419345.1297768</v>
       </c>
       <c r="G70" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H70" s="5" t="n">
-        <v>21946484.94510219</v>
+        <v>21979613.94510219</v>
       </c>
       <c r="I70" s="5" t="n">
-        <v>20511348.81532539</v>
-      </c>
-      <c r="J70" s="6">
-        <f>(F70/H70)</f>
-        <v/>
-      </c>
-      <c r="K70" s="6">
-        <f>IF(G70&lt;&gt;G69,F70/G70,(K69*G69+F70)/G70)</f>
+        <v>20535268.81532539</v>
+      </c>
+      <c r="J70" s="5" t="n">
+        <v>21923873.23652144</v>
+      </c>
+      <c r="K70" s="5" t="n">
+        <v>20504528.10674464</v>
+      </c>
+      <c r="L70" s="6">
+        <f>(F70/J70)</f>
+        <v/>
+      </c>
+      <c r="M70" s="6">
+        <f>SUMIFS(F$2:F70,G$2:G70,G70)/G70</f>
         <v/>
       </c>
     </row>
@@ -3230,35 +3658,41 @@
         </is>
       </c>
       <c r="B71" s="5" t="n">
-        <v>-491112.6900000013</v>
+        <v>-491112.69</v>
       </c>
       <c r="C71" s="5" t="n">
         <v>19776593.12532539</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>0</v>
+        <v>2990</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>243643</v>
+        <v>270553</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>-491112.6900000013</v>
+        <v>-488122.69</v>
       </c>
       <c r="G71" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H71" s="5" t="n">
-        <v>20511348.81532539</v>
+        <v>20535268.81532539</v>
       </c>
       <c r="I71" s="5" t="n">
-        <v>20020236.12532539</v>
-      </c>
-      <c r="J71" s="6">
-        <f>(F71/H71)</f>
-        <v/>
-      </c>
-      <c r="K71" s="6">
-        <f>IF(G71&lt;&gt;G70,F71/G71,(K70*G70+F71)/G71)</f>
+        <v>20047146.12532539</v>
+      </c>
+      <c r="J71" s="5" t="n">
+        <v>20504528.10674464</v>
+      </c>
+      <c r="K71" s="5" t="n">
+        <v>20016405.41674464</v>
+      </c>
+      <c r="L71" s="6">
+        <f>(F71/J71)</f>
+        <v/>
+      </c>
+      <c r="M71" s="6">
+        <f>SUMIFS(F$2:F71,G$2:G71,G71)/G71</f>
         <v/>
       </c>
     </row>
@@ -3269,35 +3703,41 @@
         </is>
       </c>
       <c r="B72" s="5" t="n">
-        <v>277251.4055607133</v>
+        <v>277251.40556071</v>
       </c>
       <c r="C72" s="5" t="n">
         <v>20053844.53088611</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>0</v>
+        <v>-1794</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>243643</v>
+        <v>268759</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>277251.4055607133</v>
+        <v>275457.40556071</v>
       </c>
       <c r="G72" s="5" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H72" s="5" t="n">
-        <v>20020236.12532539</v>
+        <v>20047146.12532539</v>
       </c>
       <c r="I72" s="5" t="n">
-        <v>20297487.53088611</v>
-      </c>
-      <c r="J72" s="6">
-        <f>(F72/H72)</f>
-        <v/>
-      </c>
-      <c r="K72" s="6">
-        <f>IF(G72&lt;&gt;G71,F72/G72,(K71*G71+F72)/G72)</f>
+        <v>20322603.53088611</v>
+      </c>
+      <c r="J72" s="5" t="n">
+        <v>20016405.41674464</v>
+      </c>
+      <c r="K72" s="5" t="n">
+        <v>20291862.82230535</v>
+      </c>
+      <c r="L72" s="6">
+        <f>(F72/J72)</f>
+        <v/>
+      </c>
+      <c r="M72" s="6">
+        <f>SUMIFS(F$2:F72,G$2:G72,G72)/G72</f>
         <v/>
       </c>
     </row>
@@ -3308,35 +3748,41 @@
         </is>
       </c>
       <c r="B73" s="8" t="n">
-        <v>126409.9520794153</v>
+        <v>126409.95207942</v>
       </c>
       <c r="C73" s="8" t="n">
         <v>20180254.48296552</v>
       </c>
       <c r="D73" s="8" t="n">
-        <v>0</v>
+        <v>8372</v>
       </c>
       <c r="E73" s="8" t="n">
-        <v>243643</v>
+        <v>277131</v>
       </c>
       <c r="F73" s="8" t="n">
-        <v>126409.9520794153</v>
+        <v>134781.95207942</v>
       </c>
       <c r="G73" s="8" t="n">
         <v>25248131.1</v>
       </c>
       <c r="H73" s="8" t="n">
-        <v>20297487.53088611</v>
+        <v>20322603.53088611</v>
       </c>
       <c r="I73" s="8" t="n">
-        <v>20423897.48296552</v>
-      </c>
-      <c r="J73" s="9">
-        <f>(F73/H73)</f>
-        <v/>
-      </c>
-      <c r="K73" s="9">
-        <f>IF(G73&lt;&gt;G72,F73/G73,(K72*G72+F73)/G73)</f>
+        <v>20457385.48296552</v>
+      </c>
+      <c r="J73" s="8" t="n">
+        <v>20291862.82230535</v>
+      </c>
+      <c r="K73" s="8" t="n">
+        <v>20426644.77438477</v>
+      </c>
+      <c r="L73" s="9">
+        <f>(F73/J73)</f>
+        <v/>
+      </c>
+      <c r="M73" s="9">
+        <f>SUMIFS(F$2:F73,G$2:G73,G73)/G73</f>
         <v/>
       </c>
     </row>
@@ -3347,19 +3793,19 @@
         </is>
       </c>
       <c r="B74" s="3" t="n">
-        <v>208379.8900000006</v>
+        <v>208379.89</v>
       </c>
       <c r="C74" s="3" t="n">
         <v>20388634.37296552</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>0</v>
+        <v>3588</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>243643</v>
+        <v>280719</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>208379.8900000006</v>
+        <v>211967.89</v>
       </c>
       <c r="G74" s="3" t="n">
         <v>20563663.5</v>
@@ -3368,14 +3814,20 @@
         <v>20563663.5</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>20632277.37296552</v>
-      </c>
-      <c r="J74" s="4">
-        <f>(F74/H74)</f>
-        <v/>
-      </c>
-      <c r="K74" s="4">
-        <f>IF(G74&lt;&gt;G73,F74/G74,(K73*G73+F74)/G74)</f>
+        <v>20669353.37296552</v>
+      </c>
+      <c r="J74" s="3" t="n">
+        <v>20563663.5</v>
+      </c>
+      <c r="K74" s="3" t="n">
+        <v>20775631.39</v>
+      </c>
+      <c r="L74" s="4">
+        <f>(F74/J74)</f>
+        <v/>
+      </c>
+      <c r="M74" s="4">
+        <f>SUMIFS(F$2:F74,G$2:G74,G74)/G74</f>
         <v/>
       </c>
     </row>
@@ -3386,35 +3838,41 @@
         </is>
       </c>
       <c r="B75" s="5" t="n">
-        <v>-492142.3399999961</v>
+        <v>-492142.34</v>
       </c>
       <c r="C75" s="5" t="n">
         <v>20046492.03296553</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>0</v>
+        <v>-2392</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>243643</v>
+        <v>278327</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>-492142.3399999961</v>
+        <v>-494534.34</v>
       </c>
       <c r="G75" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H75" s="5" t="n">
-        <v>20632277.37296552</v>
+        <v>20669353.37296552</v>
       </c>
       <c r="I75" s="5" t="n">
-        <v>20290135.03296553</v>
-      </c>
-      <c r="J75" s="6">
-        <f>(F75/H75)</f>
-        <v/>
-      </c>
-      <c r="K75" s="6">
-        <f>IF(G75&lt;&gt;G74,F75/G75,(K74*G74+F75)/G75)</f>
+        <v>20324819.03296553</v>
+      </c>
+      <c r="J75" s="5" t="n">
+        <v>20775631.39</v>
+      </c>
+      <c r="K75" s="5" t="n">
+        <v>20281097.05</v>
+      </c>
+      <c r="L75" s="6">
+        <f>(F75/J75)</f>
+        <v/>
+      </c>
+      <c r="M75" s="6">
+        <f>SUMIFS(F$2:F75,G$2:G75,G75)/G75</f>
         <v/>
       </c>
     </row>
@@ -3425,35 +3883,41 @@
         </is>
       </c>
       <c r="B76" s="5" t="n">
-        <v>-152811.3800000027</v>
+        <v>-152811.38</v>
       </c>
       <c r="C76" s="5" t="n">
         <v>19894847.90296552</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>0</v>
+        <v>-4784</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>243643</v>
+        <v>273543</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>-152811.3800000027</v>
+        <v>-157595.38</v>
       </c>
       <c r="G76" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H76" s="5" t="n">
-        <v>20290135.03296553</v>
+        <v>20324819.03296553</v>
       </c>
       <c r="I76" s="5" t="n">
-        <v>20138490.90296552</v>
-      </c>
-      <c r="J76" s="6">
-        <f>(F76/H76)</f>
-        <v/>
-      </c>
-      <c r="K76" s="6">
-        <f>IF(G76&lt;&gt;G75,F76/G76,(K75*G75+F76)/G76)</f>
+        <v>20168390.90296552</v>
+      </c>
+      <c r="J76" s="5" t="n">
+        <v>20281097.05</v>
+      </c>
+      <c r="K76" s="5" t="n">
+        <v>20123501.67</v>
+      </c>
+      <c r="L76" s="6">
+        <f>(F76/J76)</f>
+        <v/>
+      </c>
+      <c r="M76" s="6">
+        <f>SUMIFS(F$2:F76,G$2:G76,G76)/G76</f>
         <v/>
       </c>
     </row>
@@ -3464,35 +3928,41 @@
         </is>
       </c>
       <c r="B77" s="5" t="n">
-        <v>-379151.5599999987</v>
+        <v>-379151.5599999999</v>
       </c>
       <c r="C77" s="5" t="n">
         <v>19515696.34296552</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>0</v>
+        <v>-5980</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>243643</v>
+        <v>267563</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>-379151.5599999987</v>
+        <v>-385131.5599999999</v>
       </c>
       <c r="G77" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H77" s="5" t="n">
-        <v>20138490.90296552</v>
+        <v>20168390.90296552</v>
       </c>
       <c r="I77" s="5" t="n">
-        <v>19759339.34296552</v>
-      </c>
-      <c r="J77" s="6">
-        <f>(F77/H77)</f>
-        <v/>
-      </c>
-      <c r="K77" s="6">
-        <f>IF(G77&lt;&gt;G76,F77/G77,(K76*G76+F77)/G77)</f>
+        <v>19783259.34296552</v>
+      </c>
+      <c r="J77" s="5" t="n">
+        <v>20123501.67</v>
+      </c>
+      <c r="K77" s="5" t="n">
+        <v>19738370.11</v>
+      </c>
+      <c r="L77" s="6">
+        <f>(F77/J77)</f>
+        <v/>
+      </c>
+      <c r="M77" s="6">
+        <f>SUMIFS(F$2:F77,G$2:G77,G77)/G77</f>
         <v/>
       </c>
     </row>
@@ -3503,35 +3973,41 @@
         </is>
       </c>
       <c r="B78" s="5" t="n">
-        <v>825635.2199999988</v>
+        <v>825635.22</v>
       </c>
       <c r="C78" s="5" t="n">
         <v>20341331.56296552</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>0</v>
+        <v>7176</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>243643</v>
+        <v>274739</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>825635.2199999988</v>
+        <v>832811.22</v>
       </c>
       <c r="G78" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H78" s="5" t="n">
-        <v>19759339.34296552</v>
+        <v>19783259.34296552</v>
       </c>
       <c r="I78" s="5" t="n">
-        <v>20584974.56296552</v>
-      </c>
-      <c r="J78" s="6">
-        <f>(F78/H78)</f>
-        <v/>
-      </c>
-      <c r="K78" s="6">
-        <f>IF(G78&lt;&gt;G77,F78/G78,(K77*G77+F78)/G78)</f>
+        <v>20616070.56296552</v>
+      </c>
+      <c r="J78" s="5" t="n">
+        <v>19738370.11</v>
+      </c>
+      <c r="K78" s="5" t="n">
+        <v>20571181.33</v>
+      </c>
+      <c r="L78" s="6">
+        <f>(F78/J78)</f>
+        <v/>
+      </c>
+      <c r="M78" s="6">
+        <f>SUMIFS(F$2:F78,G$2:G78,G78)/G78</f>
         <v/>
       </c>
     </row>
@@ -3542,35 +4018,41 @@
         </is>
       </c>
       <c r="B79" s="5" t="n">
-        <v>574407.179999996</v>
+        <v>574407.1800000001</v>
       </c>
       <c r="C79" s="5" t="n">
         <v>20915738.74296552</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>0</v>
+        <v>-5980</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>243643</v>
+        <v>268759</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>574407.179999996</v>
+        <v>568427.1800000001</v>
       </c>
       <c r="G79" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H79" s="5" t="n">
-        <v>20584974.56296552</v>
+        <v>20616070.56296552</v>
       </c>
       <c r="I79" s="5" t="n">
-        <v>21159381.74296552</v>
-      </c>
-      <c r="J79" s="6">
-        <f>(F79/H79)</f>
-        <v/>
-      </c>
-      <c r="K79" s="6">
-        <f>IF(G79&lt;&gt;G78,F79/G79,(K78*G78+F79)/G79)</f>
+        <v>21184497.74296552</v>
+      </c>
+      <c r="J79" s="5" t="n">
+        <v>20571181.33</v>
+      </c>
+      <c r="K79" s="5" t="n">
+        <v>21139608.51</v>
+      </c>
+      <c r="L79" s="6">
+        <f>(F79/J79)</f>
+        <v/>
+      </c>
+      <c r="M79" s="6">
+        <f>SUMIFS(F$2:F79,G$2:G79,G79)/G79</f>
         <v/>
       </c>
     </row>
@@ -3581,35 +4063,41 @@
         </is>
       </c>
       <c r="B80" s="5" t="n">
-        <v>352686.6600000001</v>
+        <v>352686.66</v>
       </c>
       <c r="C80" s="5" t="n">
         <v>21268425.40296552</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>0</v>
+        <v>4784</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>243643</v>
+        <v>273543</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>352686.6600000001</v>
+        <v>357470.66</v>
       </c>
       <c r="G80" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H80" s="5" t="n">
-        <v>21159381.74296552</v>
+        <v>21184497.74296552</v>
       </c>
       <c r="I80" s="5" t="n">
-        <v>21512068.40296552</v>
-      </c>
-      <c r="J80" s="6">
-        <f>(F80/H80)</f>
-        <v/>
-      </c>
-      <c r="K80" s="6">
-        <f>IF(G80&lt;&gt;G79,F80/G80,(K79*G79+F80)/G80)</f>
+        <v>21541968.40296552</v>
+      </c>
+      <c r="J80" s="5" t="n">
+        <v>21139608.51</v>
+      </c>
+      <c r="K80" s="5" t="n">
+        <v>21497079.17</v>
+      </c>
+      <c r="L80" s="6">
+        <f>(F80/J80)</f>
+        <v/>
+      </c>
+      <c r="M80" s="6">
+        <f>SUMIFS(F$2:F80,G$2:G80,G80)/G80</f>
         <v/>
       </c>
     </row>
@@ -3620,35 +4108,41 @@
         </is>
       </c>
       <c r="B81" s="5" t="n">
-        <v>1098241.840000004</v>
+        <v>1098241.84</v>
       </c>
       <c r="C81" s="5" t="n">
         <v>22366667.24296552</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>0</v>
+        <v>5980</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>243643</v>
+        <v>279523</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>1098241.840000004</v>
+        <v>1104221.84</v>
       </c>
       <c r="G81" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H81" s="5" t="n">
-        <v>21512068.40296552</v>
+        <v>21541968.40296552</v>
       </c>
       <c r="I81" s="5" t="n">
-        <v>22610310.24296552</v>
-      </c>
-      <c r="J81" s="6">
-        <f>(F81/H81)</f>
-        <v/>
-      </c>
-      <c r="K81" s="6">
-        <f>IF(G81&lt;&gt;G80,F81/G81,(K80*G80+F81)/G81)</f>
+        <v>22646190.24296552</v>
+      </c>
+      <c r="J81" s="5" t="n">
+        <v>21497079.17</v>
+      </c>
+      <c r="K81" s="5" t="n">
+        <v>22601301.01</v>
+      </c>
+      <c r="L81" s="6">
+        <f>(F81/J81)</f>
+        <v/>
+      </c>
+      <c r="M81" s="6">
+        <f>SUMIFS(F$2:F81,G$2:G81,G81)/G81</f>
         <v/>
       </c>
     </row>
@@ -3659,7 +4153,7 @@
         </is>
       </c>
       <c r="B82" s="5" t="n">
-        <v>337260.0799999982</v>
+        <v>337260.08</v>
       </c>
       <c r="C82" s="5" t="n">
         <v>22703927.32296552</v>
@@ -3668,26 +4162,32 @@
         <v>0</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>243643</v>
+        <v>279523</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>337260.0799999982</v>
+        <v>337260.08</v>
       </c>
       <c r="G82" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H82" s="5" t="n">
-        <v>22610310.24296552</v>
+        <v>22646190.24296552</v>
       </c>
       <c r="I82" s="5" t="n">
-        <v>22947570.32296552</v>
-      </c>
-      <c r="J82" s="6">
-        <f>(F82/H82)</f>
-        <v/>
-      </c>
-      <c r="K82" s="6">
-        <f>IF(G82&lt;&gt;G81,F82/G82,(K81*G81+F82)/G82)</f>
+        <v>22983450.32296552</v>
+      </c>
+      <c r="J82" s="5" t="n">
+        <v>22601301.01</v>
+      </c>
+      <c r="K82" s="5" t="n">
+        <v>22938561.09</v>
+      </c>
+      <c r="L82" s="6">
+        <f>(F82/J82)</f>
+        <v/>
+      </c>
+      <c r="M82" s="6">
+        <f>SUMIFS(F$2:F82,G$2:G82,G82)/G82</f>
         <v/>
       </c>
     </row>
@@ -3698,35 +4198,41 @@
         </is>
       </c>
       <c r="B83" s="5" t="n">
-        <v>-487900.236655999</v>
+        <v>-487900.236656</v>
       </c>
       <c r="C83" s="5" t="n">
         <v>22216027.08630952</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>0</v>
+        <v>3468</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>243643</v>
+        <v>282991</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-487900.236655999</v>
+        <v>-484432.236656</v>
       </c>
       <c r="G83" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H83" s="5" t="n">
-        <v>22947570.32296552</v>
+        <v>22983450.32296552</v>
       </c>
       <c r="I83" s="5" t="n">
-        <v>22459670.08630952</v>
-      </c>
-      <c r="J83" s="6">
-        <f>(F83/H83)</f>
-        <v/>
-      </c>
-      <c r="K83" s="6">
-        <f>IF(G83&lt;&gt;G82,F83/G83,(K82*G82+F83)/G83)</f>
+        <v>22499018.08630952</v>
+      </c>
+      <c r="J83" s="5" t="n">
+        <v>22938561.09</v>
+      </c>
+      <c r="K83" s="5" t="n">
+        <v>22454128.853344</v>
+      </c>
+      <c r="L83" s="6">
+        <f>(F83/J83)</f>
+        <v/>
+      </c>
+      <c r="M83" s="6">
+        <f>SUMIFS(F$2:F83,G$2:G83,G83)/G83</f>
         <v/>
       </c>
     </row>
@@ -3737,35 +4243,41 @@
         </is>
       </c>
       <c r="B84" s="5" t="n">
-        <v>-234662.5280214436</v>
+        <v>-234662.52802144</v>
       </c>
       <c r="C84" s="5" t="n">
         <v>21981364.55828808</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>0</v>
+        <v>10884</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>-234662.5280214436</v>
+        <v>-223778.52802144</v>
       </c>
       <c r="G84" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H84" s="5" t="n">
-        <v>22459670.08630952</v>
+        <v>22499018.08630952</v>
       </c>
       <c r="I84" s="5" t="n">
-        <v>22225007.55828808</v>
-      </c>
-      <c r="J84" s="6">
-        <f>(F84/H84)</f>
-        <v/>
-      </c>
-      <c r="K84" s="6">
-        <f>IF(G84&lt;&gt;G83,F84/G84,(K83*G83+F84)/G84)</f>
+        <v>22275239.55828808</v>
+      </c>
+      <c r="J84" s="5" t="n">
+        <v>22454128.853344</v>
+      </c>
+      <c r="K84" s="5" t="n">
+        <v>22230350.32532256</v>
+      </c>
+      <c r="L84" s="6">
+        <f>(F84/J84)</f>
+        <v/>
+      </c>
+      <c r="M84" s="6">
+        <f>SUMIFS(F$2:F84,G$2:G84,G84)/G84</f>
         <v/>
       </c>
     </row>
@@ -3776,35 +4288,41 @@
         </is>
       </c>
       <c r="B85" s="5" t="n">
-        <v>-108434.0640889555</v>
+        <v>-108434.06408896</v>
       </c>
       <c r="C85" s="5" t="n">
         <v>21872930.49419912</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>0</v>
+        <v>14352</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>243643</v>
+        <v>308227</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>-108434.0640889555</v>
+        <v>-94082.06408895999</v>
       </c>
       <c r="G85" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H85" s="5" t="n">
-        <v>22225007.55828808</v>
+        <v>22275239.55828808</v>
       </c>
       <c r="I85" s="5" t="n">
-        <v>22116573.49419912</v>
-      </c>
-      <c r="J85" s="6">
-        <f>(F85/H85)</f>
-        <v/>
-      </c>
-      <c r="K85" s="6">
-        <f>IF(G85&lt;&gt;G84,F85/G85,(K84*G84+F85)/G85)</f>
+        <v>22181157.49419912</v>
+      </c>
+      <c r="J85" s="5" t="n">
+        <v>22230350.32532256</v>
+      </c>
+      <c r="K85" s="5" t="n">
+        <v>22136268.2612336</v>
+      </c>
+      <c r="L85" s="6">
+        <f>(F85/J85)</f>
+        <v/>
+      </c>
+      <c r="M85" s="6">
+        <f>SUMIFS(F$2:F85,G$2:G85,G85)/G85</f>
         <v/>
       </c>
     </row>
@@ -3815,35 +4333,41 @@
         </is>
       </c>
       <c r="B86" s="5" t="n">
-        <v>1392630.609546799</v>
+        <v>1392630.6095468</v>
       </c>
       <c r="C86" s="5" t="n">
         <v>23265561.10374592</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>0</v>
+        <v>8372</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>243643</v>
+        <v>316599</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>1392630.609546799</v>
+        <v>1401002.6095468</v>
       </c>
       <c r="G86" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H86" s="5" t="n">
-        <v>22116573.49419912</v>
+        <v>22181157.49419912</v>
       </c>
       <c r="I86" s="5" t="n">
-        <v>23509204.10374592</v>
-      </c>
-      <c r="J86" s="6">
-        <f>(F86/H86)</f>
-        <v/>
-      </c>
-      <c r="K86" s="6">
-        <f>IF(G86&lt;&gt;G85,F86/G86,(K85*G85+F86)/G86)</f>
+        <v>23582160.10374592</v>
+      </c>
+      <c r="J86" s="5" t="n">
+        <v>22136268.2612336</v>
+      </c>
+      <c r="K86" s="5" t="n">
+        <v>23537270.8707804</v>
+      </c>
+      <c r="L86" s="6">
+        <f>(F86/J86)</f>
+        <v/>
+      </c>
+      <c r="M86" s="6">
+        <f>SUMIFS(F$2:F86,G$2:G86,G86)/G86</f>
         <v/>
       </c>
     </row>
@@ -3854,35 +4378,41 @@
         </is>
       </c>
       <c r="B87" s="5" t="n">
-        <v>628623.5645679981</v>
+        <v>628623.564568</v>
       </c>
       <c r="C87" s="5" t="n">
         <v>23894184.66831392</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>0</v>
+        <v>11960</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>243643</v>
+        <v>328559</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>628623.5645679981</v>
+        <v>640583.564568</v>
       </c>
       <c r="G87" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H87" s="5" t="n">
-        <v>23509204.10374592</v>
+        <v>23582160.10374592</v>
       </c>
       <c r="I87" s="5" t="n">
-        <v>24137827.66831392</v>
-      </c>
-      <c r="J87" s="6">
-        <f>(F87/H87)</f>
-        <v/>
-      </c>
-      <c r="K87" s="6">
-        <f>IF(G87&lt;&gt;G86,F87/G87,(K86*G86+F87)/G87)</f>
+        <v>24222743.66831392</v>
+      </c>
+      <c r="J87" s="5" t="n">
+        <v>23537270.8707804</v>
+      </c>
+      <c r="K87" s="5" t="n">
+        <v>24177854.4353484</v>
+      </c>
+      <c r="L87" s="6">
+        <f>(F87/J87)</f>
+        <v/>
+      </c>
+      <c r="M87" s="6">
+        <f>SUMIFS(F$2:F87,G$2:G87,G87)/G87</f>
         <v/>
       </c>
     </row>
@@ -3893,35 +4423,41 @@
         </is>
       </c>
       <c r="B88" s="5" t="n">
-        <v>-15094.34329399839</v>
+        <v>-15094.343294</v>
       </c>
       <c r="C88" s="5" t="n">
         <v>23879090.32501992</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>0</v>
+        <v>-10764</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>243643</v>
+        <v>317795</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>-15094.34329399839</v>
+        <v>-25858.343294</v>
       </c>
       <c r="G88" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H88" s="5" t="n">
-        <v>24137827.66831392</v>
+        <v>24222743.66831392</v>
       </c>
       <c r="I88" s="5" t="n">
-        <v>24122733.32501992</v>
-      </c>
-      <c r="J88" s="6">
-        <f>(F88/H88)</f>
-        <v/>
-      </c>
-      <c r="K88" s="6">
-        <f>IF(G88&lt;&gt;G87,F88/G88,(K87*G87+F88)/G88)</f>
+        <v>24196885.32501992</v>
+      </c>
+      <c r="J88" s="5" t="n">
+        <v>24177854.4353484</v>
+      </c>
+      <c r="K88" s="5" t="n">
+        <v>24151996.0920544</v>
+      </c>
+      <c r="L88" s="6">
+        <f>(F88/J88)</f>
+        <v/>
+      </c>
+      <c r="M88" s="6">
+        <f>SUMIFS(F$2:F88,G$2:G88,G88)/G88</f>
         <v/>
       </c>
     </row>
@@ -3932,35 +4468,41 @@
         </is>
       </c>
       <c r="B89" s="5" t="n">
-        <v>-111991.5580800027</v>
+        <v>-111991.55808</v>
       </c>
       <c r="C89" s="5" t="n">
         <v>23767098.76693992</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>0</v>
+        <v>-5980</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>243643</v>
+        <v>311815</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>-111991.5580800027</v>
+        <v>-117971.55808</v>
       </c>
       <c r="G89" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H89" s="5" t="n">
-        <v>24122733.32501992</v>
+        <v>24196885.32501992</v>
       </c>
       <c r="I89" s="5" t="n">
-        <v>24010741.76693992</v>
-      </c>
-      <c r="J89" s="6">
-        <f>(F89/H89)</f>
-        <v/>
-      </c>
-      <c r="K89" s="6">
-        <f>IF(G89&lt;&gt;G88,F89/G89,(K88*G88+F89)/G89)</f>
+        <v>24078913.76693992</v>
+      </c>
+      <c r="J89" s="5" t="n">
+        <v>24151996.0920544</v>
+      </c>
+      <c r="K89" s="5" t="n">
+        <v>24034024.5339744</v>
+      </c>
+      <c r="L89" s="6">
+        <f>(F89/J89)</f>
+        <v/>
+      </c>
+      <c r="M89" s="6">
+        <f>SUMIFS(F$2:F89,G$2:G89,G89)/G89</f>
         <v/>
       </c>
     </row>
@@ -3971,35 +4513,41 @@
         </is>
       </c>
       <c r="B90" s="5" t="n">
-        <v>-475288.4129760005</v>
+        <v>-475288.4129760001</v>
       </c>
       <c r="C90" s="5" t="n">
         <v>23291810.35396392</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>0</v>
+        <v>4784</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>243643</v>
+        <v>316599</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>-475288.4129760005</v>
+        <v>-470504.4129760001</v>
       </c>
       <c r="G90" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H90" s="5" t="n">
-        <v>24010741.76693992</v>
+        <v>24078913.76693992</v>
       </c>
       <c r="I90" s="5" t="n">
-        <v>23535453.35396392</v>
-      </c>
-      <c r="J90" s="6">
-        <f>(F90/H90)</f>
-        <v/>
-      </c>
-      <c r="K90" s="6">
-        <f>IF(G90&lt;&gt;G89,F90/G90,(K89*G89+F90)/G90)</f>
+        <v>23608409.35396392</v>
+      </c>
+      <c r="J90" s="5" t="n">
+        <v>24034024.5339744</v>
+      </c>
+      <c r="K90" s="5" t="n">
+        <v>23563520.1209984</v>
+      </c>
+      <c r="L90" s="6">
+        <f>(F90/J90)</f>
+        <v/>
+      </c>
+      <c r="M90" s="6">
+        <f>SUMIFS(F$2:F90,G$2:G90,G90)/G90</f>
         <v/>
       </c>
     </row>
@@ -4010,35 +4558,41 @@
         </is>
       </c>
       <c r="B91" s="5" t="n">
-        <v>-280321.0544999989</v>
+        <v>-280321.0545</v>
       </c>
       <c r="C91" s="5" t="n">
         <v>23025633.63946392</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>0</v>
+        <v>4784</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>243643</v>
+        <v>321383</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>-280321.0544999989</v>
+        <v>-275537.0545</v>
       </c>
       <c r="G91" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H91" s="5" t="n">
-        <v>23535453.35396392</v>
+        <v>23608409.35396392</v>
       </c>
       <c r="I91" s="5" t="n">
-        <v>23269276.63946392</v>
-      </c>
-      <c r="J91" s="6">
-        <f>(F91/H91)</f>
-        <v/>
-      </c>
-      <c r="K91" s="6">
-        <f>IF(G91&lt;&gt;G90,F91/G91,(K90*G90+F91)/G91)</f>
+        <v>23347016.63946392</v>
+      </c>
+      <c r="J91" s="5" t="n">
+        <v>23563520.1209984</v>
+      </c>
+      <c r="K91" s="5" t="n">
+        <v>23287983.0664984</v>
+      </c>
+      <c r="L91" s="6">
+        <f>(F91/J91)</f>
+        <v/>
+      </c>
+      <c r="M91" s="6">
+        <f>SUMIFS(F$2:F91,G$2:G91,G91)/G91</f>
         <v/>
       </c>
     </row>
@@ -4049,35 +4603,41 @@
         </is>
       </c>
       <c r="B92" s="5" t="n">
-        <v>-324328.3300000019</v>
+        <v>-324328.33</v>
       </c>
       <c r="C92" s="5" t="n">
         <v>22701305.30946392</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>0</v>
+        <v>-9568</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>243643</v>
+        <v>311815</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>-324328.3300000019</v>
+        <v>-333896.33</v>
       </c>
       <c r="G92" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H92" s="5" t="n">
-        <v>23269276.63946392</v>
+        <v>23347016.63946392</v>
       </c>
       <c r="I92" s="5" t="n">
-        <v>22944948.30946392</v>
-      </c>
-      <c r="J92" s="6">
-        <f>(F92/H92)</f>
-        <v/>
-      </c>
-      <c r="K92" s="6">
-        <f>IF(G92&lt;&gt;G91,F92/G92,(K91*G91+F92)/G92)</f>
+        <v>23013120.30946392</v>
+      </c>
+      <c r="J92" s="5" t="n">
+        <v>23287983.0664984</v>
+      </c>
+      <c r="K92" s="5" t="n">
+        <v>22954086.7364984</v>
+      </c>
+      <c r="L92" s="6">
+        <f>(F92/J92)</f>
+        <v/>
+      </c>
+      <c r="M92" s="6">
+        <f>SUMIFS(F$2:F92,G$2:G92,G92)/G92</f>
         <v/>
       </c>
     </row>
@@ -4088,35 +4648,41 @@
         </is>
       </c>
       <c r="B93" s="5" t="n">
-        <v>130672.0093144029</v>
+        <v>130672.0093144</v>
       </c>
       <c r="C93" s="5" t="n">
         <v>22831977.31877832</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>0</v>
+        <v>2392</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>243643</v>
+        <v>314207</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>130672.0093144029</v>
+        <v>133064.0093144</v>
       </c>
       <c r="G93" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H93" s="5" t="n">
-        <v>22944948.30946392</v>
+        <v>23013120.30946392</v>
       </c>
       <c r="I93" s="5" t="n">
-        <v>23075620.31877832</v>
-      </c>
-      <c r="J93" s="6">
-        <f>(F93/H93)</f>
-        <v/>
-      </c>
-      <c r="K93" s="6">
-        <f>IF(G93&lt;&gt;G92,F93/G93,(K92*G92+F93)/G93)</f>
+        <v>23146184.31877832</v>
+      </c>
+      <c r="J93" s="5" t="n">
+        <v>22954086.7364984</v>
+      </c>
+      <c r="K93" s="5" t="n">
+        <v>23087150.7458128</v>
+      </c>
+      <c r="L93" s="6">
+        <f>(F93/J93)</f>
+        <v/>
+      </c>
+      <c r="M93" s="6">
+        <f>SUMIFS(F$2:F93,G$2:G93,G93)/G93</f>
         <v/>
       </c>
     </row>
@@ -4136,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>243643</v>
+        <v>314207</v>
       </c>
       <c r="F94" s="5" t="n">
         <v>0</v>
@@ -4145,17 +4711,23 @@
         <v>20563663.5</v>
       </c>
       <c r="H94" s="5" t="n">
-        <v>23075620.31877832</v>
+        <v>23146184.31877832</v>
       </c>
       <c r="I94" s="5" t="n">
-        <v>23075620.31877832</v>
-      </c>
-      <c r="J94" s="6">
-        <f>(F94/H94)</f>
-        <v/>
-      </c>
-      <c r="K94" s="6">
-        <f>IF(G94&lt;&gt;G93,F94/G94,(K93*G93+F94)/G94)</f>
+        <v>23146184.31877832</v>
+      </c>
+      <c r="J94" s="5" t="n">
+        <v>23087150.7458128</v>
+      </c>
+      <c r="K94" s="5" t="n">
+        <v>23087150.7458128</v>
+      </c>
+      <c r="L94" s="6">
+        <f>(F94/J94)</f>
+        <v/>
+      </c>
+      <c r="M94" s="6">
+        <f>SUMIFS(F$2:F94,G$2:G94,G94)/G94</f>
         <v/>
       </c>
     </row>
@@ -4166,35 +4738,41 @@
         </is>
       </c>
       <c r="B95" s="5" t="n">
-        <v>-496505.149625361</v>
+        <v>-496505.14962536</v>
       </c>
       <c r="C95" s="5" t="n">
         <v>22335472.16915296</v>
       </c>
       <c r="D95" s="5" t="n">
-        <v>0</v>
+        <v>9568</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>243643</v>
+        <v>323775</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>-496505.149625361</v>
+        <v>-486937.14962536</v>
       </c>
       <c r="G95" s="5" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H95" s="5" t="n">
-        <v>23075620.31877832</v>
+        <v>23146184.31877832</v>
       </c>
       <c r="I95" s="5" t="n">
-        <v>22579115.16915296</v>
-      </c>
-      <c r="J95" s="6">
-        <f>(F95/H95)</f>
-        <v/>
-      </c>
-      <c r="K95" s="6">
-        <f>IF(G95&lt;&gt;G94,F95/G95,(K94*G94+F95)/G95)</f>
+        <v>22659247.16915296</v>
+      </c>
+      <c r="J95" s="5" t="n">
+        <v>23087150.7458128</v>
+      </c>
+      <c r="K95" s="5" t="n">
+        <v>22600213.59618744</v>
+      </c>
+      <c r="L95" s="6">
+        <f>(F95/J95)</f>
+        <v/>
+      </c>
+      <c r="M95" s="6">
+        <f>SUMIFS(F$2:F95,G$2:G95,G95)/G95</f>
         <v/>
       </c>
     </row>
@@ -4205,35 +4783,41 @@
         </is>
       </c>
       <c r="B96" s="8" t="n">
-        <v>160257.7619600818</v>
+        <v>160257.76196008</v>
       </c>
       <c r="C96" s="8" t="n">
         <v>22495729.93111304</v>
       </c>
       <c r="D96" s="8" t="n">
-        <v>0</v>
+        <v>-8372</v>
       </c>
       <c r="E96" s="8" t="n">
-        <v>243643</v>
+        <v>315403</v>
       </c>
       <c r="F96" s="8" t="n">
-        <v>160257.7619600818</v>
+        <v>151885.76196008</v>
       </c>
       <c r="G96" s="8" t="n">
         <v>20563663.5</v>
       </c>
       <c r="H96" s="8" t="n">
-        <v>22579115.16915296</v>
+        <v>22659247.16915296</v>
       </c>
       <c r="I96" s="8" t="n">
-        <v>22739372.93111304</v>
-      </c>
-      <c r="J96" s="9">
-        <f>(F96/H96)</f>
-        <v/>
-      </c>
-      <c r="K96" s="9">
-        <f>IF(G96&lt;&gt;G95,F96/G96,(K95*G95+F96)/G96)</f>
+        <v>22811132.93111304</v>
+      </c>
+      <c r="J96" s="8" t="n">
+        <v>22600213.59618744</v>
+      </c>
+      <c r="K96" s="8" t="n">
+        <v>22752099.35814752</v>
+      </c>
+      <c r="L96" s="9">
+        <f>(F96/J96)</f>
+        <v/>
+      </c>
+      <c r="M96" s="9">
+        <f>SUMIFS(F$2:F96,G$2:G96,G96)/G96</f>
         <v/>
       </c>
     </row>
@@ -4250,13 +4834,13 @@
         <v>22615445.51887848</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>0</v>
+        <v>-5980</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>243643</v>
+        <v>309423</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>119715.58776544</v>
+        <v>113735.58776544</v>
       </c>
       <c r="G97" s="3" t="n">
         <v>22743625.23</v>
@@ -4265,14 +4849,20 @@
         <v>22743625.23</v>
       </c>
       <c r="I97" s="3" t="n">
-        <v>22859088.51887848</v>
-      </c>
-      <c r="J97" s="4">
-        <f>(F97/H97)</f>
-        <v/>
-      </c>
-      <c r="K97" s="4">
-        <f>IF(G97&lt;&gt;G96,F97/G97,(K96*G96+F97)/G97)</f>
+        <v>22924868.51887848</v>
+      </c>
+      <c r="J97" s="3" t="n">
+        <v>22743625.23</v>
+      </c>
+      <c r="K97" s="3" t="n">
+        <v>22857360.81776544</v>
+      </c>
+      <c r="L97" s="4">
+        <f>(F97/J97)</f>
+        <v/>
+      </c>
+      <c r="M97" s="4">
+        <f>SUMIFS(F$2:F97,G$2:G97,G97)/G97</f>
         <v/>
       </c>
     </row>
@@ -4289,29 +4879,35 @@
         <v>23565838.05952648</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>0</v>
+        <v>-4784</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>243643</v>
+        <v>304639</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>950392.540648</v>
+        <v>945608.540648</v>
       </c>
       <c r="G98" s="5" t="n">
         <v>22743625.23</v>
       </c>
       <c r="H98" s="5" t="n">
-        <v>22859088.51887848</v>
+        <v>22924868.51887848</v>
       </c>
       <c r="I98" s="5" t="n">
-        <v>23809481.05952648</v>
-      </c>
-      <c r="J98" s="6">
-        <f>(F98/H98)</f>
-        <v/>
-      </c>
-      <c r="K98" s="6">
-        <f>IF(G98&lt;&gt;G97,F98/G98,(K97*G97+F98)/G98)</f>
+        <v>23870477.05952648</v>
+      </c>
+      <c r="J98" s="5" t="n">
+        <v>22857360.81776544</v>
+      </c>
+      <c r="K98" s="5" t="n">
+        <v>23802969.35841344</v>
+      </c>
+      <c r="L98" s="6">
+        <f>(F98/J98)</f>
+        <v/>
+      </c>
+      <c r="M98" s="6">
+        <f>SUMIFS(F$2:F98,G$2:G98,G98)/G98</f>
         <v/>
       </c>
     </row>
@@ -4328,29 +4924,35 @@
         <v>23678282.33745448</v>
       </c>
       <c r="D99" s="5" t="n">
-        <v>0</v>
+        <v>-11960</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>243643</v>
+        <v>292679</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>108441.347928</v>
+        <v>96481.347928</v>
       </c>
       <c r="G99" s="5" t="n">
         <v>22743625.23</v>
       </c>
       <c r="H99" s="5" t="n">
-        <v>23809481.05952648</v>
+        <v>23870477.05952648</v>
       </c>
       <c r="I99" s="5" t="n">
-        <v>23921925.33745448</v>
-      </c>
-      <c r="J99" s="6">
-        <f>(F99/H99)</f>
-        <v/>
-      </c>
-      <c r="K99" s="6">
-        <f>IF(G99&lt;&gt;G98,F99/G99,(K98*G98+F99)/G99)</f>
+        <v>23970961.33745448</v>
+      </c>
+      <c r="J99" s="5" t="n">
+        <v>23802969.35841344</v>
+      </c>
+      <c r="K99" s="5" t="n">
+        <v>23899450.70634144</v>
+      </c>
+      <c r="L99" s="6">
+        <f>(F99/J99)</f>
+        <v/>
+      </c>
+      <c r="M99" s="6">
+        <f>SUMIFS(F$2:F99,G$2:G99,G99)/G99</f>
         <v/>
       </c>
     </row>
@@ -4367,29 +4969,35 @@
         <v>24147914.654002</v>
       </c>
       <c r="D100" s="5" t="n">
-        <v>0</v>
+        <v>11960</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>243643</v>
+        <v>304639</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>469632.31654752</v>
+        <v>481592.31654752</v>
       </c>
       <c r="G100" s="5" t="n">
         <v>22743625.23</v>
       </c>
       <c r="H100" s="5" t="n">
-        <v>23921925.33745448</v>
+        <v>23970961.33745448</v>
       </c>
       <c r="I100" s="5" t="n">
-        <v>24391557.654002</v>
-      </c>
-      <c r="J100" s="6">
-        <f>(F100/H100)</f>
-        <v/>
-      </c>
-      <c r="K100" s="6">
-        <f>IF(G100&lt;&gt;G99,F100/G100,(K99*G99+F100)/G100)</f>
+        <v>24452553.654002</v>
+      </c>
+      <c r="J100" s="5" t="n">
+        <v>23899450.70634144</v>
+      </c>
+      <c r="K100" s="5" t="n">
+        <v>24381043.02288896</v>
+      </c>
+      <c r="L100" s="6">
+        <f>(F100/J100)</f>
+        <v/>
+      </c>
+      <c r="M100" s="6">
+        <f>SUMIFS(F$2:F100,G$2:G100,G100)/G100</f>
         <v/>
       </c>
     </row>
@@ -4406,29 +5014,35 @@
         <v>24393676.79631368</v>
       </c>
       <c r="D101" s="5" t="n">
-        <v>0</v>
+        <v>2392</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>243643</v>
+        <v>307031</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>245762.14231168</v>
+        <v>248154.14231168</v>
       </c>
       <c r="G101" s="5" t="n">
         <v>22743625.23</v>
       </c>
       <c r="H101" s="5" t="n">
-        <v>24391557.654002</v>
+        <v>24452553.654002</v>
       </c>
       <c r="I101" s="5" t="n">
-        <v>24637319.79631368</v>
-      </c>
-      <c r="J101" s="6">
-        <f>(F101/H101)</f>
-        <v/>
-      </c>
-      <c r="K101" s="6">
-        <f>IF(G101&lt;&gt;G100,F101/G101,(K100*G100+F101)/G101)</f>
+        <v>24700707.79631368</v>
+      </c>
+      <c r="J101" s="5" t="n">
+        <v>24381043.02288896</v>
+      </c>
+      <c r="K101" s="5" t="n">
+        <v>24629197.16520064</v>
+      </c>
+      <c r="L101" s="6">
+        <f>(F101/J101)</f>
+        <v/>
+      </c>
+      <c r="M101" s="6">
+        <f>SUMIFS(F$2:F101,G$2:G101,G101)/G101</f>
         <v/>
       </c>
     </row>
@@ -4445,29 +5059,35 @@
         <v>24413278.8275483</v>
       </c>
       <c r="D102" s="5" t="n">
-        <v>0</v>
+        <v>-15548</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>243643</v>
+        <v>291483</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>19602.03123462</v>
+        <v>4054.031234620001</v>
       </c>
       <c r="G102" s="5" t="n">
         <v>22743625.23</v>
       </c>
       <c r="H102" s="5" t="n">
-        <v>24637319.79631368</v>
+        <v>24700707.79631368</v>
       </c>
       <c r="I102" s="5" t="n">
-        <v>24656921.8275483</v>
-      </c>
-      <c r="J102" s="6">
-        <f>(F102/H102)</f>
-        <v/>
-      </c>
-      <c r="K102" s="6">
-        <f>IF(G102&lt;&gt;G101,F102/G102,(K101*G101+F102)/G102)</f>
+        <v>24704761.8275483</v>
+      </c>
+      <c r="J102" s="5" t="n">
+        <v>24629197.16520064</v>
+      </c>
+      <c r="K102" s="5" t="n">
+        <v>24633251.19643526</v>
+      </c>
+      <c r="L102" s="6">
+        <f>(F102/J102)</f>
+        <v/>
+      </c>
+      <c r="M102" s="6">
+        <f>SUMIFS(F$2:F102,G$2:G102,G102)/G102</f>
         <v/>
       </c>
     </row>
@@ -4484,29 +5104,35 @@
         <v>24563411.48460878</v>
       </c>
       <c r="D103" s="5" t="n">
-        <v>0</v>
+        <v>-4784</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>243643</v>
+        <v>286699</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>150132.65706048</v>
+        <v>145348.65706048</v>
       </c>
       <c r="G103" s="5" t="n">
         <v>22743625.23</v>
       </c>
       <c r="H103" s="5" t="n">
-        <v>24656921.8275483</v>
+        <v>24704761.8275483</v>
       </c>
       <c r="I103" s="5" t="n">
-        <v>24807054.48460878</v>
-      </c>
-      <c r="J103" s="6">
-        <f>(F103/H103)</f>
-        <v/>
-      </c>
-      <c r="K103" s="6">
-        <f>IF(G103&lt;&gt;G102,F103/G103,(K102*G102+F103)/G103)</f>
+        <v>24850110.48460878</v>
+      </c>
+      <c r="J103" s="5" t="n">
+        <v>24633251.19643526</v>
+      </c>
+      <c r="K103" s="5" t="n">
+        <v>24778599.85349574</v>
+      </c>
+      <c r="L103" s="6">
+        <f>(F103/J103)</f>
+        <v/>
+      </c>
+      <c r="M103" s="6">
+        <f>SUMIFS(F$2:F103,G$2:G103,G103)/G103</f>
         <v/>
       </c>
     </row>
@@ -4523,29 +5149,35 @@
         <v>24844319.31964478</v>
       </c>
       <c r="D104" s="5" t="n">
-        <v>0</v>
+        <v>20332</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>243643</v>
+        <v>307031</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>280907.835036</v>
+        <v>301239.835036</v>
       </c>
       <c r="G104" s="5" t="n">
         <v>22743625.23</v>
       </c>
       <c r="H104" s="5" t="n">
-        <v>24807054.48460878</v>
+        <v>24850110.48460878</v>
       </c>
       <c r="I104" s="5" t="n">
-        <v>25087962.31964478</v>
-      </c>
-      <c r="J104" s="6">
-        <f>(F104/H104)</f>
-        <v/>
-      </c>
-      <c r="K104" s="6">
-        <f>IF(G104&lt;&gt;G103,F104/G104,(K103*G103+F104)/G104)</f>
+        <v>25151350.31964478</v>
+      </c>
+      <c r="J104" s="5" t="n">
+        <v>24778599.85349574</v>
+      </c>
+      <c r="K104" s="5" t="n">
+        <v>25079839.68853174</v>
+      </c>
+      <c r="L104" s="6">
+        <f>(F104/J104)</f>
+        <v/>
+      </c>
+      <c r="M104" s="6">
+        <f>SUMIFS(F$2:F104,G$2:G104,G104)/G104</f>
         <v/>
       </c>
     </row>
@@ -4562,29 +5194,35 @@
         <v>24994588.5841375</v>
       </c>
       <c r="D105" s="5" t="n">
-        <v>0</v>
+        <v>-13156</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>-103333.60550728</v>
+        <v>-116489.60550728</v>
       </c>
       <c r="G105" s="5" t="n">
         <v>22743625.23</v>
       </c>
       <c r="H105" s="5" t="n">
-        <v>25087962.31964478</v>
+        <v>25151350.31964478</v>
       </c>
       <c r="I105" s="5" t="n">
-        <v>25238231.5841375</v>
-      </c>
-      <c r="J105" s="6">
-        <f>(F105/H105)</f>
-        <v/>
-      </c>
-      <c r="K105" s="6">
-        <f>IF(G105&lt;&gt;G104,F105/G105,(K104*G104+F105)/G105)</f>
+        <v>25288463.5841375</v>
+      </c>
+      <c r="J105" s="5" t="n">
+        <v>25079839.68853174</v>
+      </c>
+      <c r="K105" s="5" t="n">
+        <v>24963350.08302446</v>
+      </c>
+      <c r="L105" s="6">
+        <f>(F105/J105)</f>
+        <v/>
+      </c>
+      <c r="M105" s="6">
+        <f>SUMIFS(F$2:F105,G$2:G105,G105)/G105</f>
         <v/>
       </c>
     </row>
@@ -4604,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F106" s="5" t="n">
         <v>-486839.76</v>
@@ -4613,17 +5251,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H106" s="5" t="n">
-        <v>25238231.5841375</v>
+        <v>25288463.5841375</v>
       </c>
       <c r="I106" s="5" t="n">
-        <v>24751391.82413751</v>
-      </c>
-      <c r="J106" s="6">
-        <f>(F106/H106)</f>
-        <v/>
-      </c>
-      <c r="K106" s="6">
-        <f>IF(G106&lt;&gt;G105,F106/G106,(K105*G105+F106)/G106)</f>
+        <v>24801623.82413751</v>
+      </c>
+      <c r="J106" s="5" t="n">
+        <v>24963350.08302446</v>
+      </c>
+      <c r="K106" s="5" t="n">
+        <v>24476510.32302446</v>
+      </c>
+      <c r="L106" s="6">
+        <f>(F106/J106)</f>
+        <v/>
+      </c>
+      <c r="M106" s="6">
+        <f>SUMIFS(F$2:F106,G$2:G106,G106)/G106</f>
         <v/>
       </c>
     </row>
@@ -4643,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F107" s="5" t="n">
         <v>-125056.6663768</v>
@@ -4652,17 +5296,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H107" s="5" t="n">
-        <v>24751391.82413751</v>
+        <v>24801623.82413751</v>
       </c>
       <c r="I107" s="5" t="n">
-        <v>24626335.1577607</v>
-      </c>
-      <c r="J107" s="6">
-        <f>(F107/H107)</f>
-        <v/>
-      </c>
-      <c r="K107" s="6">
-        <f>IF(G107&lt;&gt;G106,F107/G107,(K106*G106+F107)/G107)</f>
+        <v>24676567.1577607</v>
+      </c>
+      <c r="J107" s="5" t="n">
+        <v>24476510.32302446</v>
+      </c>
+      <c r="K107" s="5" t="n">
+        <v>24351453.65664766</v>
+      </c>
+      <c r="L107" s="6">
+        <f>(F107/J107)</f>
+        <v/>
+      </c>
+      <c r="M107" s="6">
+        <f>SUMIFS(F$2:F107,G$2:G107,G107)/G107</f>
         <v/>
       </c>
     </row>
@@ -4682,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F108" s="5" t="n">
         <v>-13312.39</v>
@@ -4691,17 +5341,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H108" s="5" t="n">
-        <v>24626335.1577607</v>
+        <v>24676567.1577607</v>
       </c>
       <c r="I108" s="5" t="n">
-        <v>24613022.7677607</v>
-      </c>
-      <c r="J108" s="6">
-        <f>(F108/H108)</f>
-        <v/>
-      </c>
-      <c r="K108" s="6">
-        <f>IF(G108&lt;&gt;G107,F108/G108,(K107*G107+F108)/G108)</f>
+        <v>24663254.7677607</v>
+      </c>
+      <c r="J108" s="5" t="n">
+        <v>24351453.65664766</v>
+      </c>
+      <c r="K108" s="5" t="n">
+        <v>24338141.26664766</v>
+      </c>
+      <c r="L108" s="6">
+        <f>(F108/J108)</f>
+        <v/>
+      </c>
+      <c r="M108" s="6">
+        <f>SUMIFS(F$2:F108,G$2:G108,G108)/G108</f>
         <v/>
       </c>
     </row>
@@ -4721,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F109" s="5" t="n">
         <v>0</v>
@@ -4730,17 +5386,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H109" s="5" t="n">
-        <v>24613022.7677607</v>
+        <v>24663254.7677607</v>
       </c>
       <c r="I109" s="5" t="n">
-        <v>24613022.7677607</v>
-      </c>
-      <c r="J109" s="6">
-        <f>(F109/H109)</f>
-        <v/>
-      </c>
-      <c r="K109" s="6">
-        <f>IF(G109&lt;&gt;G108,F109/G109,(K108*G108+F109)/G109)</f>
+        <v>24663254.7677607</v>
+      </c>
+      <c r="J109" s="5" t="n">
+        <v>24338141.26664766</v>
+      </c>
+      <c r="K109" s="5" t="n">
+        <v>24338141.26664766</v>
+      </c>
+      <c r="L109" s="6">
+        <f>(F109/J109)</f>
+        <v/>
+      </c>
+      <c r="M109" s="6">
+        <f>SUMIFS(F$2:F109,G$2:G109,G109)/G109</f>
         <v/>
       </c>
     </row>
@@ -4760,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F110" s="5" t="n">
         <v>296944.17</v>
@@ -4769,17 +5431,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H110" s="5" t="n">
-        <v>24613022.7677607</v>
+        <v>24663254.7677607</v>
       </c>
       <c r="I110" s="5" t="n">
-        <v>24909966.9377607</v>
-      </c>
-      <c r="J110" s="6">
-        <f>(F110/H110)</f>
-        <v/>
-      </c>
-      <c r="K110" s="6">
-        <f>IF(G110&lt;&gt;G109,F110/G110,(K109*G109+F110)/G110)</f>
+        <v>24960198.9377607</v>
+      </c>
+      <c r="J110" s="5" t="n">
+        <v>24338141.26664766</v>
+      </c>
+      <c r="K110" s="5" t="n">
+        <v>24635085.43664766</v>
+      </c>
+      <c r="L110" s="6">
+        <f>(F110/J110)</f>
+        <v/>
+      </c>
+      <c r="M110" s="6">
+        <f>SUMIFS(F$2:F110,G$2:G110,G110)/G110</f>
         <v/>
       </c>
     </row>
@@ -4799,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F111" s="5" t="n">
         <v>-362753.36</v>
@@ -4808,17 +5476,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H111" s="5" t="n">
-        <v>24909966.9377607</v>
+        <v>24960198.9377607</v>
       </c>
       <c r="I111" s="5" t="n">
-        <v>24547213.5777607</v>
-      </c>
-      <c r="J111" s="6">
-        <f>(F111/H111)</f>
-        <v/>
-      </c>
-      <c r="K111" s="6">
-        <f>IF(G111&lt;&gt;G110,F111/G111,(K110*G110+F111)/G111)</f>
+        <v>24597445.5777607</v>
+      </c>
+      <c r="J111" s="5" t="n">
+        <v>24635085.43664766</v>
+      </c>
+      <c r="K111" s="5" t="n">
+        <v>24272332.07664766</v>
+      </c>
+      <c r="L111" s="6">
+        <f>(F111/J111)</f>
+        <v/>
+      </c>
+      <c r="M111" s="6">
+        <f>SUMIFS(F$2:F111,G$2:G111,G111)/G111</f>
         <v/>
       </c>
     </row>
@@ -4838,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F112" s="5" t="n">
         <v>-423758.4599121599</v>
@@ -4847,17 +5521,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H112" s="5" t="n">
-        <v>24547213.5777607</v>
+        <v>24597445.5777607</v>
       </c>
       <c r="I112" s="5" t="n">
-        <v>24123455.11784854</v>
-      </c>
-      <c r="J112" s="6">
-        <f>(F112/H112)</f>
-        <v/>
-      </c>
-      <c r="K112" s="6">
-        <f>IF(G112&lt;&gt;G111,F112/G112,(K111*G111+F112)/G112)</f>
+        <v>24173687.11784854</v>
+      </c>
+      <c r="J112" s="5" t="n">
+        <v>24272332.07664766</v>
+      </c>
+      <c r="K112" s="5" t="n">
+        <v>23848573.6167355</v>
+      </c>
+      <c r="L112" s="6">
+        <f>(F112/J112)</f>
+        <v/>
+      </c>
+      <c r="M112" s="6">
+        <f>SUMIFS(F$2:F112,G$2:G112,G112)/G112</f>
         <v/>
       </c>
     </row>
@@ -4877,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F113" s="5" t="n">
         <v>-116414.61668</v>
@@ -4886,17 +5566,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H113" s="5" t="n">
-        <v>24123455.11784854</v>
+        <v>24173687.11784854</v>
       </c>
       <c r="I113" s="5" t="n">
-        <v>24007040.50116854</v>
-      </c>
-      <c r="J113" s="6">
-        <f>(F113/H113)</f>
-        <v/>
-      </c>
-      <c r="K113" s="6">
-        <f>IF(G113&lt;&gt;G112,F113/G113,(K112*G112+F113)/G113)</f>
+        <v>24057272.50116854</v>
+      </c>
+      <c r="J113" s="5" t="n">
+        <v>23848573.6167355</v>
+      </c>
+      <c r="K113" s="5" t="n">
+        <v>23732159.0000555</v>
+      </c>
+      <c r="L113" s="6">
+        <f>(F113/J113)</f>
+        <v/>
+      </c>
+      <c r="M113" s="6">
+        <f>SUMIFS(F$2:F113,G$2:G113,G113)/G113</f>
         <v/>
       </c>
     </row>
@@ -4916,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F114" s="5" t="n">
         <v>-105407.89</v>
@@ -4925,17 +5611,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H114" s="5" t="n">
-        <v>24007040.50116854</v>
+        <v>24057272.50116854</v>
       </c>
       <c r="I114" s="5" t="n">
-        <v>23901632.61116854</v>
-      </c>
-      <c r="J114" s="6">
-        <f>(F114/H114)</f>
-        <v/>
-      </c>
-      <c r="K114" s="6">
-        <f>IF(G114&lt;&gt;G113,F114/G114,(K113*G113+F114)/G114)</f>
+        <v>23951864.61116854</v>
+      </c>
+      <c r="J114" s="5" t="n">
+        <v>23732159.0000555</v>
+      </c>
+      <c r="K114" s="5" t="n">
+        <v>23626751.1100555</v>
+      </c>
+      <c r="L114" s="6">
+        <f>(F114/J114)</f>
+        <v/>
+      </c>
+      <c r="M114" s="6">
+        <f>SUMIFS(F$2:F114,G$2:G114,G114)/G114</f>
         <v/>
       </c>
     </row>
@@ -4955,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F115" s="5" t="n">
         <v>332050.7407732</v>
@@ -4964,17 +5656,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H115" s="5" t="n">
-        <v>23901632.61116854</v>
+        <v>23951864.61116854</v>
       </c>
       <c r="I115" s="5" t="n">
-        <v>24233683.35194173</v>
-      </c>
-      <c r="J115" s="6">
-        <f>(F115/H115)</f>
-        <v/>
-      </c>
-      <c r="K115" s="6">
-        <f>IF(G115&lt;&gt;G114,F115/G115,(K114*G114+F115)/G115)</f>
+        <v>24283915.35194173</v>
+      </c>
+      <c r="J115" s="5" t="n">
+        <v>23626751.1100555</v>
+      </c>
+      <c r="K115" s="5" t="n">
+        <v>23958801.8508287</v>
+      </c>
+      <c r="L115" s="6">
+        <f>(F115/J115)</f>
+        <v/>
+      </c>
+      <c r="M115" s="6">
+        <f>SUMIFS(F$2:F115,G$2:G115,G115)/G115</f>
         <v/>
       </c>
     </row>
@@ -4994,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F116" s="5" t="n">
         <v>-338971.90349042</v>
@@ -5003,17 +5701,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H116" s="5" t="n">
-        <v>24233683.35194173</v>
+        <v>24283915.35194173</v>
       </c>
       <c r="I116" s="5" t="n">
-        <v>23894711.44845131</v>
-      </c>
-      <c r="J116" s="6">
-        <f>(F116/H116)</f>
-        <v/>
-      </c>
-      <c r="K116" s="6">
-        <f>IF(G116&lt;&gt;G115,F116/G116,(K115*G115+F116)/G116)</f>
+        <v>23944943.44845131</v>
+      </c>
+      <c r="J116" s="5" t="n">
+        <v>23958801.8508287</v>
+      </c>
+      <c r="K116" s="5" t="n">
+        <v>23619829.94733828</v>
+      </c>
+      <c r="L116" s="6">
+        <f>(F116/J116)</f>
+        <v/>
+      </c>
+      <c r="M116" s="6">
+        <f>SUMIFS(F$2:F116,G$2:G116,G116)/G116</f>
         <v/>
       </c>
     </row>
@@ -5033,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F117" s="5" t="n">
         <v>607957.12</v>
@@ -5042,17 +5746,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H117" s="5" t="n">
-        <v>23894711.44845131</v>
+        <v>23944943.44845131</v>
       </c>
       <c r="I117" s="5" t="n">
-        <v>24502668.56845132</v>
-      </c>
-      <c r="J117" s="6">
-        <f>(F117/H117)</f>
-        <v/>
-      </c>
-      <c r="K117" s="6">
-        <f>IF(G117&lt;&gt;G116,F117/G117,(K116*G116+F117)/G117)</f>
+        <v>24552900.56845132</v>
+      </c>
+      <c r="J117" s="5" t="n">
+        <v>23619829.94733828</v>
+      </c>
+      <c r="K117" s="5" t="n">
+        <v>24227787.06733828</v>
+      </c>
+      <c r="L117" s="6">
+        <f>(F117/J117)</f>
+        <v/>
+      </c>
+      <c r="M117" s="6">
+        <f>SUMIFS(F$2:F117,G$2:G117,G117)/G117</f>
         <v/>
       </c>
     </row>
@@ -5072,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="8" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F118" s="8" t="n">
         <v>181041.725</v>
@@ -5081,17 +5791,23 @@
         <v>22743625.23</v>
       </c>
       <c r="H118" s="8" t="n">
-        <v>24502668.56845132</v>
+        <v>24552900.56845132</v>
       </c>
       <c r="I118" s="8" t="n">
-        <v>24683710.29345132</v>
-      </c>
-      <c r="J118" s="9">
-        <f>(F118/H118)</f>
-        <v/>
-      </c>
-      <c r="K118" s="9">
-        <f>IF(G118&lt;&gt;G117,F118/G118,(K117*G117+F118)/G118)</f>
+        <v>24733942.29345132</v>
+      </c>
+      <c r="J118" s="8" t="n">
+        <v>24227787.06733828</v>
+      </c>
+      <c r="K118" s="8" t="n">
+        <v>24408828.79233828</v>
+      </c>
+      <c r="L118" s="9">
+        <f>(F118/J118)</f>
+        <v/>
+      </c>
+      <c r="M118" s="9">
+        <f>SUMIFS(F$2:F118,G$2:G118,G118)/G118</f>
         <v/>
       </c>
     </row>
@@ -5111,26 +5827,32 @@
         <v>0</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F119" s="3" t="n">
         <v>282435.99</v>
       </c>
       <c r="G119" s="3" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="I119" s="3" t="n">
-        <v>24966146.28345132</v>
-      </c>
-      <c r="J119" s="4">
-        <f>(F119/H119)</f>
-        <v/>
-      </c>
-      <c r="K119" s="4">
-        <f>IF(G119&lt;&gt;G118,F119/G119,(K118*G118+F119)/G119)</f>
+        <v>25016378.28345132</v>
+      </c>
+      <c r="J119" s="3" t="n">
+        <v>24733942.29345132</v>
+      </c>
+      <c r="K119" s="3" t="n">
+        <v>25016378.28345132</v>
+      </c>
+      <c r="L119" s="4">
+        <f>(F119/J119)</f>
+        <v/>
+      </c>
+      <c r="M119" s="4">
+        <f>SUMIFS(F$2:F119,G$2:G119,G119)/G119</f>
         <v/>
       </c>
     </row>
@@ -5150,26 +5872,32 @@
         <v>0</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F120" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G120" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H120" s="5" t="n">
-        <v>24966146.28345132</v>
+        <v>25016378.28345132</v>
       </c>
       <c r="I120" s="5" t="n">
-        <v>24966146.28345132</v>
-      </c>
-      <c r="J120" s="6">
-        <f>(F120/H120)</f>
-        <v/>
-      </c>
-      <c r="K120" s="6">
-        <f>IF(G120&lt;&gt;G119,F120/G120,(K119*G119+F120)/G120)</f>
+        <v>25016378.28345132</v>
+      </c>
+      <c r="J120" s="5" t="n">
+        <v>25016378.28345132</v>
+      </c>
+      <c r="K120" s="5" t="n">
+        <v>25016378.28345132</v>
+      </c>
+      <c r="L120" s="6">
+        <f>(F120/J120)</f>
+        <v/>
+      </c>
+      <c r="M120" s="6">
+        <f>SUMIFS(F$2:F120,G$2:G120,G120)/G120</f>
         <v/>
       </c>
     </row>
@@ -5189,26 +5917,32 @@
         <v>0</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F121" s="5" t="n">
         <v>-562245.8350000001</v>
       </c>
       <c r="G121" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H121" s="5" t="n">
-        <v>24966146.28345132</v>
+        <v>25016378.28345132</v>
       </c>
       <c r="I121" s="5" t="n">
-        <v>24403900.44845132</v>
-      </c>
-      <c r="J121" s="6">
-        <f>(F121/H121)</f>
-        <v/>
-      </c>
-      <c r="K121" s="6">
-        <f>IF(G121&lt;&gt;G120,F121/G121,(K120*G120+F121)/G121)</f>
+        <v>24454132.44845132</v>
+      </c>
+      <c r="J121" s="5" t="n">
+        <v>25016378.28345132</v>
+      </c>
+      <c r="K121" s="5" t="n">
+        <v>24454132.44845131</v>
+      </c>
+      <c r="L121" s="6">
+        <f>(F121/J121)</f>
+        <v/>
+      </c>
+      <c r="M121" s="6">
+        <f>SUMIFS(F$2:F121,G$2:G121,G121)/G121</f>
         <v/>
       </c>
     </row>
@@ -5228,26 +5962,32 @@
         <v>0</v>
       </c>
       <c r="E122" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F122" s="5" t="n">
         <v>-348586.541</v>
       </c>
       <c r="G122" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H122" s="5" t="n">
-        <v>24403900.44845132</v>
+        <v>24454132.44845132</v>
       </c>
       <c r="I122" s="5" t="n">
-        <v>24058078.81745132</v>
-      </c>
-      <c r="J122" s="6">
-        <f>(F122/H122)</f>
-        <v/>
-      </c>
-      <c r="K122" s="6">
-        <f>IF(G122&lt;&gt;G121,F122/G122,(K121*G121+F122)/G122)</f>
+        <v>24108310.81745132</v>
+      </c>
+      <c r="J122" s="5" t="n">
+        <v>24454132.44845132</v>
+      </c>
+      <c r="K122" s="5" t="n">
+        <v>24105545.90745132</v>
+      </c>
+      <c r="L122" s="6">
+        <f>(F122/J122)</f>
+        <v/>
+      </c>
+      <c r="M122" s="6">
+        <f>SUMIFS(F$2:F122,G$2:G122,G122)/G122</f>
         <v/>
       </c>
     </row>
@@ -5267,26 +6007,32 @@
         <v>0</v>
       </c>
       <c r="E123" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F123" s="5" t="n">
         <v>-445072.970132</v>
       </c>
       <c r="G123" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H123" s="5" t="n">
-        <v>24058078.81745132</v>
+        <v>24108310.81745132</v>
       </c>
       <c r="I123" s="5" t="n">
-        <v>23543005.84731932</v>
-      </c>
-      <c r="J123" s="6">
-        <f>(F123/H123)</f>
-        <v/>
-      </c>
-      <c r="K123" s="6">
-        <f>IF(G123&lt;&gt;G122,F123/G123,(K122*G122+F123)/G123)</f>
+        <v>23593237.84731932</v>
+      </c>
+      <c r="J123" s="5" t="n">
+        <v>24105545.90745132</v>
+      </c>
+      <c r="K123" s="5" t="n">
+        <v>23660472.93731932</v>
+      </c>
+      <c r="L123" s="6">
+        <f>(F123/J123)</f>
+        <v/>
+      </c>
+      <c r="M123" s="6">
+        <f>SUMIFS(F$2:F123,G$2:G123,G123)/G123</f>
         <v/>
       </c>
     </row>
@@ -5306,26 +6052,32 @@
         <v>0</v>
       </c>
       <c r="E124" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F124" s="5" t="n">
         <v>-222947.765</v>
       </c>
       <c r="G124" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H124" s="5" t="n">
-        <v>23543005.84731932</v>
+        <v>23593237.84731932</v>
       </c>
       <c r="I124" s="5" t="n">
-        <v>23319563.59231932</v>
-      </c>
-      <c r="J124" s="6">
-        <f>(F124/H124)</f>
-        <v/>
-      </c>
-      <c r="K124" s="6">
-        <f>IF(G124&lt;&gt;G123,F124/G124,(K123*G123+F124)/G124)</f>
+        <v>23369795.59231932</v>
+      </c>
+      <c r="J124" s="5" t="n">
+        <v>23660472.93731932</v>
+      </c>
+      <c r="K124" s="5" t="n">
+        <v>23437525.17231932</v>
+      </c>
+      <c r="L124" s="6">
+        <f>(F124/J124)</f>
+        <v/>
+      </c>
+      <c r="M124" s="6">
+        <f>SUMIFS(F$2:F124,G$2:G124,G124)/G124</f>
         <v/>
       </c>
     </row>
@@ -5345,26 +6097,32 @@
         <v>0</v>
       </c>
       <c r="E125" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F125" s="5" t="n">
         <v>452615.4873</v>
       </c>
       <c r="G125" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H125" s="5" t="n">
-        <v>23319563.59231932</v>
+        <v>23369795.59231932</v>
       </c>
       <c r="I125" s="5" t="n">
-        <v>23771846.15961932</v>
-      </c>
-      <c r="J125" s="6">
-        <f>(F125/H125)</f>
-        <v/>
-      </c>
-      <c r="K125" s="6">
-        <f>IF(G125&lt;&gt;G124,F125/G125,(K124*G124+F125)/G125)</f>
+        <v>23822078.15961932</v>
+      </c>
+      <c r="J125" s="5" t="n">
+        <v>23437525.17231932</v>
+      </c>
+      <c r="K125" s="5" t="n">
+        <v>23890140.65961932</v>
+      </c>
+      <c r="L125" s="6">
+        <f>(F125/J125)</f>
+        <v/>
+      </c>
+      <c r="M125" s="6">
+        <f>SUMIFS(F$2:F125,G$2:G125,G125)/G125</f>
         <v/>
       </c>
     </row>
@@ -5384,26 +6142,32 @@
         <v>0</v>
       </c>
       <c r="E126" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F126" s="5" t="n">
         <v>-75809.14540000001</v>
       </c>
       <c r="G126" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H126" s="5" t="n">
-        <v>23771846.15961932</v>
+        <v>23822078.15961932</v>
       </c>
       <c r="I126" s="5" t="n">
-        <v>23689238.40421932</v>
-      </c>
-      <c r="J126" s="6">
-        <f>(F126/H126)</f>
-        <v/>
-      </c>
-      <c r="K126" s="6">
-        <f>IF(G126&lt;&gt;G125,F126/G126,(K125*G125+F126)/G126)</f>
+        <v>23739470.40421932</v>
+      </c>
+      <c r="J126" s="5" t="n">
+        <v>23890140.65961932</v>
+      </c>
+      <c r="K126" s="5" t="n">
+        <v>23814331.51421932</v>
+      </c>
+      <c r="L126" s="6">
+        <f>(F126/J126)</f>
+        <v/>
+      </c>
+      <c r="M126" s="6">
+        <f>SUMIFS(F$2:F126,G$2:G126,G126)/G126</f>
         <v/>
       </c>
     </row>
@@ -5423,26 +6187,32 @@
         <v>0</v>
       </c>
       <c r="E127" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F127" s="5" t="n">
         <v>254827.628752</v>
       </c>
       <c r="G127" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H127" s="5" t="n">
-        <v>23689238.40421932</v>
+        <v>23739470.40421932</v>
       </c>
       <c r="I127" s="5" t="n">
-        <v>23944066.03297132</v>
-      </c>
-      <c r="J127" s="6">
-        <f>(F127/H127)</f>
-        <v/>
-      </c>
-      <c r="K127" s="6">
-        <f>IF(G127&lt;&gt;G126,F127/G127,(K126*G126+F127)/G127)</f>
+        <v>23994298.03297132</v>
+      </c>
+      <c r="J127" s="5" t="n">
+        <v>23814331.51421932</v>
+      </c>
+      <c r="K127" s="5" t="n">
+        <v>24069159.14297132</v>
+      </c>
+      <c r="L127" s="6">
+        <f>(F127/J127)</f>
+        <v/>
+      </c>
+      <c r="M127" s="6">
+        <f>SUMIFS(F$2:F127,G$2:G127,G127)/G127</f>
         <v/>
       </c>
     </row>
@@ -5462,26 +6232,32 @@
         <v>0</v>
       </c>
       <c r="E128" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F128" s="5" t="n">
         <v>-771327.1549999999</v>
       </c>
       <c r="G128" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H128" s="5" t="n">
-        <v>23944066.03297132</v>
+        <v>23994298.03297132</v>
       </c>
       <c r="I128" s="5" t="n">
-        <v>23172738.87797132</v>
-      </c>
-      <c r="J128" s="6">
-        <f>(F128/H128)</f>
-        <v/>
-      </c>
-      <c r="K128" s="6">
-        <f>IF(G128&lt;&gt;G127,F128/G128,(K127*G127+F128)/G128)</f>
+        <v>23222970.87797132</v>
+      </c>
+      <c r="J128" s="5" t="n">
+        <v>24069159.14297131</v>
+      </c>
+      <c r="K128" s="5" t="n">
+        <v>23297831.98797131</v>
+      </c>
+      <c r="L128" s="6">
+        <f>(F128/J128)</f>
+        <v/>
+      </c>
+      <c r="M128" s="6">
+        <f>SUMIFS(F$2:F128,G$2:G128,G128)/G128</f>
         <v/>
       </c>
     </row>
@@ -5501,26 +6277,32 @@
         <v>0</v>
       </c>
       <c r="E129" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F129" s="5" t="n">
         <v>626059.87</v>
       </c>
       <c r="G129" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H129" s="5" t="n">
-        <v>23172738.87797132</v>
+        <v>23222970.87797132</v>
       </c>
       <c r="I129" s="5" t="n">
-        <v>23798798.74797132</v>
-      </c>
-      <c r="J129" s="6">
-        <f>(F129/H129)</f>
-        <v/>
-      </c>
-      <c r="K129" s="6">
-        <f>IF(G129&lt;&gt;G128,F129/G129,(K128*G128+F129)/G129)</f>
+        <v>23849030.74797132</v>
+      </c>
+      <c r="J129" s="5" t="n">
+        <v>23297831.98797132</v>
+      </c>
+      <c r="K129" s="5" t="n">
+        <v>23923891.85797132</v>
+      </c>
+      <c r="L129" s="6">
+        <f>(F129/J129)</f>
+        <v/>
+      </c>
+      <c r="M129" s="6">
+        <f>SUMIFS(F$2:F129,G$2:G129,G129)/G129</f>
         <v/>
       </c>
     </row>
@@ -5540,26 +6322,32 @@
         <v>0</v>
       </c>
       <c r="E130" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F130" s="5" t="n">
         <v>-121465.6191724</v>
       </c>
       <c r="G130" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H130" s="5" t="n">
-        <v>23798798.74797132</v>
+        <v>23849030.74797132</v>
       </c>
       <c r="I130" s="5" t="n">
-        <v>23677333.12879892</v>
-      </c>
-      <c r="J130" s="6">
-        <f>(F130/H130)</f>
-        <v/>
-      </c>
-      <c r="K130" s="6">
-        <f>IF(G130&lt;&gt;G129,F130/G130,(K129*G129+F130)/G130)</f>
+        <v>23727565.12879892</v>
+      </c>
+      <c r="J130" s="5" t="n">
+        <v>23923891.85797132</v>
+      </c>
+      <c r="K130" s="5" t="n">
+        <v>23802426.23879892</v>
+      </c>
+      <c r="L130" s="6">
+        <f>(F130/J130)</f>
+        <v/>
+      </c>
+      <c r="M130" s="6">
+        <f>SUMIFS(F$2:F130,G$2:G130,G130)/G130</f>
         <v/>
       </c>
     </row>
@@ -5579,26 +6367,32 @@
         <v>0</v>
       </c>
       <c r="E131" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F131" s="5" t="n">
         <v>-1203492.44882</v>
       </c>
       <c r="G131" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H131" s="5" t="n">
-        <v>23677333.12879892</v>
+        <v>23727565.12879892</v>
       </c>
       <c r="I131" s="5" t="n">
-        <v>22477320.97997892</v>
-      </c>
-      <c r="J131" s="6">
-        <f>(F131/H131)</f>
-        <v/>
-      </c>
-      <c r="K131" s="6">
-        <f>IF(G131&lt;&gt;G130,F131/G131,(K130*G130+F131)/G131)</f>
+        <v>22527552.97997892</v>
+      </c>
+      <c r="J131" s="5" t="n">
+        <v>23802426.23879892</v>
+      </c>
+      <c r="K131" s="5" t="n">
+        <v>22598933.78997892</v>
+      </c>
+      <c r="L131" s="6">
+        <f>(F131/J131)</f>
+        <v/>
+      </c>
+      <c r="M131" s="6">
+        <f>SUMIFS(F$2:F131,G$2:G131,G131)/G131</f>
         <v/>
       </c>
     </row>
@@ -5618,26 +6412,32 @@
         <v>0</v>
       </c>
       <c r="E132" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F132" s="5" t="n">
         <v>-206030.9795</v>
       </c>
       <c r="G132" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H132" s="5" t="n">
-        <v>22477320.97997892</v>
+        <v>22527552.97997892</v>
       </c>
       <c r="I132" s="5" t="n">
-        <v>22271290.00047892</v>
-      </c>
-      <c r="J132" s="6">
-        <f>(F132/H132)</f>
-        <v/>
-      </c>
-      <c r="K132" s="6">
-        <f>IF(G132&lt;&gt;G131,F132/G132,(K131*G131+F132)/G132)</f>
+        <v>22321522.00047892</v>
+      </c>
+      <c r="J132" s="5" t="n">
+        <v>22598933.78997892</v>
+      </c>
+      <c r="K132" s="5" t="n">
+        <v>22392902.81047892</v>
+      </c>
+      <c r="L132" s="6">
+        <f>(F132/J132)</f>
+        <v/>
+      </c>
+      <c r="M132" s="6">
+        <f>SUMIFS(F$2:F132,G$2:G132,G132)/G132</f>
         <v/>
       </c>
     </row>
@@ -5657,26 +6457,32 @@
         <v>0</v>
       </c>
       <c r="E133" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F133" s="5" t="n">
         <v>-137768.939</v>
       </c>
       <c r="G133" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H133" s="5" t="n">
-        <v>22271290.00047892</v>
+        <v>22321522.00047892</v>
       </c>
       <c r="I133" s="5" t="n">
-        <v>22133521.06147892</v>
-      </c>
-      <c r="J133" s="6">
-        <f>(F133/H133)</f>
-        <v/>
-      </c>
-      <c r="K133" s="6">
-        <f>IF(G133&lt;&gt;G132,F133/G133,(K132*G132+F133)/G133)</f>
+        <v>22183753.06147892</v>
+      </c>
+      <c r="J133" s="5" t="n">
+        <v>22392902.81047892</v>
+      </c>
+      <c r="K133" s="5" t="n">
+        <v>22255133.87147892</v>
+      </c>
+      <c r="L133" s="6">
+        <f>(F133/J133)</f>
+        <v/>
+      </c>
+      <c r="M133" s="6">
+        <f>SUMIFS(F$2:F133,G$2:G133,G133)/G133</f>
         <v/>
       </c>
     </row>
@@ -5696,26 +6502,32 @@
         <v>0</v>
       </c>
       <c r="E134" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F134" s="5" t="n">
         <v>-9368.800999999999</v>
       </c>
       <c r="G134" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H134" s="5" t="n">
-        <v>22133521.06147892</v>
+        <v>22183753.06147892</v>
       </c>
       <c r="I134" s="5" t="n">
-        <v>22124152.26047891</v>
-      </c>
-      <c r="J134" s="6">
-        <f>(F134/H134)</f>
-        <v/>
-      </c>
-      <c r="K134" s="6">
-        <f>IF(G134&lt;&gt;G133,F134/G134,(K133*G133+F134)/G134)</f>
+        <v>22174384.26047891</v>
+      </c>
+      <c r="J134" s="5" t="n">
+        <v>22255133.87147892</v>
+      </c>
+      <c r="K134" s="5" t="n">
+        <v>22245765.07047892</v>
+      </c>
+      <c r="L134" s="6">
+        <f>(F134/J134)</f>
+        <v/>
+      </c>
+      <c r="M134" s="6">
+        <f>SUMIFS(F$2:F134,G$2:G134,G134)/G134</f>
         <v/>
       </c>
     </row>
@@ -5735,26 +6547,32 @@
         <v>0</v>
       </c>
       <c r="E135" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F135" s="5" t="n">
         <v>288186.82</v>
       </c>
       <c r="G135" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H135" s="5" t="n">
-        <v>22124152.26047891</v>
+        <v>22174384.26047891</v>
       </c>
       <c r="I135" s="5" t="n">
-        <v>22412339.08047892</v>
-      </c>
-      <c r="J135" s="6">
-        <f>(F135/H135)</f>
-        <v/>
-      </c>
-      <c r="K135" s="6">
-        <f>IF(G135&lt;&gt;G134,F135/G135,(K134*G134+F135)/G135)</f>
+        <v>22462571.08047892</v>
+      </c>
+      <c r="J135" s="5" t="n">
+        <v>22245765.07047892</v>
+      </c>
+      <c r="K135" s="5" t="n">
+        <v>22533951.89047892</v>
+      </c>
+      <c r="L135" s="6">
+        <f>(F135/J135)</f>
+        <v/>
+      </c>
+      <c r="M135" s="6">
+        <f>SUMIFS(F$2:F135,G$2:G135,G135)/G135</f>
         <v/>
       </c>
     </row>
@@ -5774,26 +6592,32 @@
         <v>0</v>
       </c>
       <c r="E136" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F136" s="5" t="n">
         <v>230910.17</v>
       </c>
       <c r="G136" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H136" s="5" t="n">
-        <v>22412339.08047892</v>
+        <v>22462571.08047892</v>
       </c>
       <c r="I136" s="5" t="n">
-        <v>22643249.25047892</v>
-      </c>
-      <c r="J136" s="6">
-        <f>(F136/H136)</f>
-        <v/>
-      </c>
-      <c r="K136" s="6">
-        <f>IF(G136&lt;&gt;G135,F136/G136,(K135*G135+F136)/G136)</f>
+        <v>22693481.25047892</v>
+      </c>
+      <c r="J136" s="5" t="n">
+        <v>22533951.89047892</v>
+      </c>
+      <c r="K136" s="5" t="n">
+        <v>22764862.06047892</v>
+      </c>
+      <c r="L136" s="6">
+        <f>(F136/J136)</f>
+        <v/>
+      </c>
+      <c r="M136" s="6">
+        <f>SUMIFS(F$2:F136,G$2:G136,G136)/G136</f>
         <v/>
       </c>
     </row>
@@ -5813,26 +6637,32 @@
         <v>0</v>
       </c>
       <c r="E137" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F137" s="5" t="n">
         <v>-657550.23</v>
       </c>
       <c r="G137" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H137" s="5" t="n">
-        <v>22643249.25047892</v>
+        <v>22693481.25047892</v>
       </c>
       <c r="I137" s="5" t="n">
-        <v>21985699.02047892</v>
-      </c>
-      <c r="J137" s="6">
-        <f>(F137/H137)</f>
-        <v/>
-      </c>
-      <c r="K137" s="6">
-        <f>IF(G137&lt;&gt;G136,F137/G137,(K136*G136+F137)/G137)</f>
+        <v>22035931.02047892</v>
+      </c>
+      <c r="J137" s="5" t="n">
+        <v>22764862.06047892</v>
+      </c>
+      <c r="K137" s="5" t="n">
+        <v>22107311.83047892</v>
+      </c>
+      <c r="L137" s="6">
+        <f>(F137/J137)</f>
+        <v/>
+      </c>
+      <c r="M137" s="6">
+        <f>SUMIFS(F$2:F137,G$2:G137,G137)/G137</f>
         <v/>
       </c>
     </row>
@@ -5852,26 +6682,32 @@
         <v>0</v>
       </c>
       <c r="E138" s="5" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F138" s="5" t="n">
         <v>307443.75</v>
       </c>
       <c r="G138" s="5" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H138" s="5" t="n">
-        <v>21985699.02047892</v>
+        <v>22035931.02047892</v>
       </c>
       <c r="I138" s="5" t="n">
-        <v>22293142.77047892</v>
-      </c>
-      <c r="J138" s="6">
-        <f>(F138/H138)</f>
-        <v/>
-      </c>
-      <c r="K138" s="6">
-        <f>IF(G138&lt;&gt;G137,F138/G138,(K137*G137+F138)/G138)</f>
+        <v>22343374.77047892</v>
+      </c>
+      <c r="J138" s="5" t="n">
+        <v>22107311.83047892</v>
+      </c>
+      <c r="K138" s="5" t="n">
+        <v>22414755.58047892</v>
+      </c>
+      <c r="L138" s="6">
+        <f>(F138/J138)</f>
+        <v/>
+      </c>
+      <c r="M138" s="6">
+        <f>SUMIFS(F$2:F138,G$2:G138,G138)/G138</f>
         <v/>
       </c>
     </row>
@@ -5891,26 +6727,32 @@
         <v>0</v>
       </c>
       <c r="E139" s="8" t="n">
-        <v>243643</v>
+        <v>293875</v>
       </c>
       <c r="F139" s="8" t="n">
         <v>326964.98</v>
       </c>
       <c r="G139" s="8" t="n">
-        <v>24683710.29345132</v>
+        <v>24733942.29345132</v>
       </c>
       <c r="H139" s="8" t="n">
-        <v>22293142.77047892</v>
+        <v>22343374.77047892</v>
       </c>
       <c r="I139" s="8" t="n">
-        <v>22620107.75047892</v>
-      </c>
-      <c r="J139" s="9">
-        <f>(F139/H139)</f>
-        <v/>
-      </c>
-      <c r="K139" s="9">
-        <f>IF(G139&lt;&gt;G138,F139/G139,(K138*G138+F139)/G139)</f>
+        <v>22670339.75047892</v>
+      </c>
+      <c r="J139" s="8" t="n">
+        <v>22414755.58047892</v>
+      </c>
+      <c r="K139" s="8" t="n">
+        <v>22741720.56047892</v>
+      </c>
+      <c r="L139" s="9">
+        <f>(F139/J139)</f>
+        <v/>
+      </c>
+      <c r="M139" s="9">
+        <f>SUMIFS(F$2:F139,G$2:G139,G139)/G139</f>
         <v/>
       </c>
     </row>
@@ -6017,7 +6859,7 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>-57.25999999977648</v>
+        <v>-57.26000000000001</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0</v>
@@ -10298,7 +11140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10484,7 +11326,7 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>-23920</v>
+        <v>5980</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -12026,6 +12868,1556 @@
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>04/03/2023</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>-4784</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>04/04/2023</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>-4784</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>04/05/2023</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>04/06/2023</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>4784</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>8372</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>04/11/2023</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>04/12/2023</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>04/13/2023</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>8372</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>04/14/2023</t>
+        </is>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>04/17/2023</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>-10764</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>04/18/2023</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>3588</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>04/19/2023</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>7176</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>04/20/2023</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>-1196</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>04/21/2023</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>-4784</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>04/24/2023</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>-2751</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>04/25/2023</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>-9209</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>04/26/2023</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>2990</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>04/27/2023</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>-1794</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>04/28/2023</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>8372</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>3588</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>05/02/2023</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>-2392</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>05/03/2023</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>-4784</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>-5980</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>7176</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>05/08/2023</t>
+        </is>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>-5980</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>4784</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>5980</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>05/11/2023</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>3468</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>05/15/2023</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>10884</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>05/16/2023</t>
+        </is>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>14352</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>05/17/2023</t>
+        </is>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>8372</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>05/18/2023</t>
+        </is>
+      </c>
+      <c r="B88" s="5" t="n">
+        <v>11960</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>05/19/2023</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>-10764</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>05/22/2023</t>
+        </is>
+      </c>
+      <c r="B90" s="5" t="n">
+        <v>-5980</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>05/23/2023</t>
+        </is>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>4784</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>05/24/2023</t>
+        </is>
+      </c>
+      <c r="B92" s="5" t="n">
+        <v>4784</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>05/25/2023</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>-9568</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>05/26/2023</t>
+        </is>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>2392</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>05/30/2023</t>
+        </is>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>9568</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>05/31/2023</t>
+        </is>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>-8372</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>06/01/2023</t>
+        </is>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>-5980</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>06/02/2023</t>
+        </is>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>-4784</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>06/05/2023</t>
+        </is>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>-11960</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>06/06/2023</t>
+        </is>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>11960</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>06/07/2023</t>
+        </is>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>2392</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>06/08/2023</t>
+        </is>
+      </c>
+      <c r="B102" s="5" t="n">
+        <v>-15548</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>06/09/2023</t>
+        </is>
+      </c>
+      <c r="B103" s="5" t="n">
+        <v>-4784</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>06/12/2023</t>
+        </is>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>20332</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>06/13/2023</t>
+        </is>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>-13156</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>In-Kind Stock</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>P&amp;L</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
